--- a/Project Outputs for Frost5000Beta/BOM Archive/BOM_Frost5000Beta.xlsx
+++ b/Project Outputs for Frost5000Beta/BOM Archive/BOM_Frost5000Beta.xlsx
@@ -425,7 +425,7 @@
     <t>Resistor SMD</t>
   </si>
   <si>
-    <t>40, 46</t>
+    <t>40, 47</t>
   </si>
   <si>
     <t>Ra2, Re2</t>
@@ -434,10 +434,10 @@
     <t>Ra3</t>
   </si>
   <si>
-    <t>42, 56, 58, 60, 62, 64</t>
-  </si>
-  <si>
-    <t>Ra4, Rq1b, Rq2b, Rq3b, Rq4b, Rq5b</t>
+    <t>42, 45, 57, 59, 61, 63, 65</t>
+  </si>
+  <si>
+    <t>Ra4, Rd1, Rq1b, Rq2b, Rq3b, Rq4b, Rq5b</t>
   </si>
   <si>
     <t>1K</t>
@@ -458,7 +458,7 @@
     <t>2.2K</t>
   </si>
   <si>
-    <t>48, 49, 54, 55</t>
+    <t>49, 50, 55, 56</t>
   </si>
   <si>
     <t>Re4, Re5, Rp1, Rp2</t>
@@ -491,7 +491,7 @@
     <t>90K</t>
   </si>
   <si>
-    <t>57, 59, 61, 63, 65</t>
+    <t>58, 60, 62, 64, 66</t>
   </si>
   <si>
     <t>Rq1c, Rq2c, Rq3c, Rq4c, Rq5c</t>
@@ -707,12 +707,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mm-dd-yyyy"/>
     <numFmt numFmtId="165" formatCode="d-mmm-yy"/>
     <numFmt numFmtId="166" formatCode="h:mm:ss am/pm"/>
-    <numFmt numFmtId="167" formatCode="m, d, yy"/>
-    <numFmt numFmtId="168" formatCode="m, d"/>
+    <numFmt numFmtId="167" formatCode="m, d"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -781,7 +780,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -1417,7 +1416,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="109">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1606,7 +1605,10 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="36" fillId="0" fontId="18" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="36" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="22" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1639,7 +1641,7 @@
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="36" fillId="0" fontId="18" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="36" fillId="0" fontId="25" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="22" fillId="12" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -1666,7 +1668,7 @@
     <xf borderId="43" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="44" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="44" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="44" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1695,16 +1697,6 @@
     <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2256,49 +2248,49 @@
     </row>
     <row r="11">
       <c r="A11" s="76">
-        <v>40949.0</v>
-      </c>
-      <c r="B11" s="62" t="s">
+        <v>2.0</v>
+      </c>
+      <c r="B11" s="77" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="78" t="s">
+      <c r="E11" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80">
+      <c r="F11" s="80"/>
+      <c r="G11" s="81">
         <v>3.0</v>
       </c>
-      <c r="H11" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="86"/>
+      <c r="H11" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="87"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="87"/>
       <c r="S11" s="74"/>
       <c r="T11" s="74"/>
       <c r="U11" s="74"/>
@@ -2310,50 +2302,50 @@
       <c r="AA11" s="75"/>
     </row>
     <row r="12">
-      <c r="A12" s="61">
+      <c r="A12" s="76">
         <v>3.0</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="77" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="78" t="s">
+      <c r="E12" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="79"/>
-      <c r="G12" s="80">
+      <c r="F12" s="80"/>
+      <c r="G12" s="81">
         <v>1.0</v>
       </c>
-      <c r="H12" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N12" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O12" s="86"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
+      <c r="H12" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="87"/>
       <c r="S12" s="74"/>
       <c r="T12" s="74"/>
       <c r="U12" s="74"/>
@@ -2365,50 +2357,50 @@
       <c r="AA12" s="75"/>
     </row>
     <row r="13">
-      <c r="A13" s="61">
+      <c r="A13" s="76">
         <v>4.0</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="77" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="78" t="s">
+      <c r="E13" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="79"/>
-      <c r="G13" s="80">
+      <c r="F13" s="80"/>
+      <c r="G13" s="81">
         <v>1.0</v>
       </c>
-      <c r="H13" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M13" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="86"/>
+      <c r="H13" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87"/>
       <c r="S13" s="74"/>
       <c r="T13" s="74"/>
       <c r="U13" s="74"/>
@@ -2420,50 +2412,50 @@
       <c r="AA13" s="75"/>
     </row>
     <row r="14">
-      <c r="A14" s="61">
+      <c r="A14" s="76">
         <v>5.0</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="77" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="78" t="s">
+      <c r="E14" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="80">
+      <c r="F14" s="80"/>
+      <c r="G14" s="81">
         <v>1.0</v>
       </c>
-      <c r="H14" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N14" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="86"/>
+      <c r="H14" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="87"/>
       <c r="S14" s="74"/>
       <c r="T14" s="74"/>
       <c r="U14" s="74"/>
@@ -2475,50 +2467,50 @@
       <c r="AA14" s="75"/>
     </row>
     <row r="15">
-      <c r="A15" s="87">
+      <c r="A15" s="88">
         <v>43995.0</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="77" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="77" t="s">
+      <c r="D15" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="78" t="s">
+      <c r="E15" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="79"/>
-      <c r="G15" s="80">
+      <c r="F15" s="80"/>
+      <c r="G15" s="81">
         <v>2.0</v>
       </c>
-      <c r="H15" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M15" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N15" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="86"/>
+      <c r="H15" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
       <c r="S15" s="74"/>
       <c r="T15" s="74"/>
       <c r="U15" s="74"/>
@@ -2530,50 +2522,50 @@
       <c r="AA15" s="75"/>
     </row>
     <row r="16">
-      <c r="A16" s="61">
+      <c r="A16" s="76">
         <v>7.0</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="77" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="77" t="s">
+      <c r="D16" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="78" t="s">
+      <c r="E16" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="79"/>
-      <c r="G16" s="80">
+      <c r="F16" s="80"/>
+      <c r="G16" s="81">
         <v>1.0</v>
       </c>
-      <c r="H16" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M16" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N16" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="86"/>
+      <c r="H16" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="87"/>
       <c r="S16" s="74"/>
       <c r="T16" s="74"/>
       <c r="U16" s="74"/>
@@ -2585,50 +2577,50 @@
       <c r="AA16" s="75"/>
     </row>
     <row r="17">
-      <c r="A17" s="87">
+      <c r="A17" s="88">
         <v>44057.0</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="77" t="s">
         <v>57</v>
       </c>
       <c r="C17" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="77" t="s">
+      <c r="D17" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="78" t="s">
+      <c r="E17" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="79"/>
-      <c r="G17" s="80">
+      <c r="F17" s="80"/>
+      <c r="G17" s="81">
         <v>2.0</v>
       </c>
-      <c r="H17" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N17" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
+      <c r="H17" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="87"/>
       <c r="S17" s="74"/>
       <c r="T17" s="74"/>
       <c r="U17" s="74"/>
@@ -2640,50 +2632,50 @@
       <c r="AA17" s="75"/>
     </row>
     <row r="18">
-      <c r="A18" s="61">
+      <c r="A18" s="76">
         <v>9.0</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="77" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="77" t="s">
+      <c r="D18" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="78" t="s">
+      <c r="E18" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="79"/>
-      <c r="G18" s="80">
+      <c r="F18" s="80"/>
+      <c r="G18" s="81">
         <v>1.0</v>
       </c>
-      <c r="H18" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M18" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N18" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
+      <c r="H18" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="87"/>
       <c r="S18" s="74"/>
       <c r="T18" s="74"/>
       <c r="U18" s="74"/>
@@ -2695,50 +2687,50 @@
       <c r="AA18" s="75"/>
     </row>
     <row r="19">
-      <c r="A19" s="61">
+      <c r="A19" s="76">
         <v>11.0</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="77" t="s">
         <v>63</v>
       </c>
       <c r="C19" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="77" t="s">
+      <c r="D19" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="78" t="s">
+      <c r="E19" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="79"/>
-      <c r="G19" s="80">
+      <c r="F19" s="80"/>
+      <c r="G19" s="81">
         <v>1.0</v>
       </c>
-      <c r="H19" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="I19" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N19" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="86"/>
+      <c r="H19" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87"/>
       <c r="S19" s="74"/>
       <c r="T19" s="74"/>
       <c r="U19" s="74"/>
@@ -2750,50 +2742,50 @@
       <c r="AA19" s="75"/>
     </row>
     <row r="20">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="77" t="s">
         <v>66</v>
       </c>
       <c r="C20" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="77" t="s">
+      <c r="D20" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="78" t="s">
+      <c r="E20" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="79"/>
-      <c r="G20" s="80">
+      <c r="F20" s="80"/>
+      <c r="G20" s="81">
         <v>2.0</v>
       </c>
-      <c r="H20" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M20" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N20" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O20" s="86"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="86"/>
+      <c r="H20" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="87"/>
       <c r="S20" s="74"/>
       <c r="T20" s="74"/>
       <c r="U20" s="74"/>
@@ -2805,50 +2797,50 @@
       <c r="AA20" s="75"/>
     </row>
     <row r="21">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="77" t="s">
         <v>68</v>
       </c>
       <c r="C21" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="77" t="s">
+      <c r="D21" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="78" t="s">
+      <c r="E21" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="79"/>
-      <c r="G21" s="80">
+      <c r="F21" s="80"/>
+      <c r="G21" s="81">
         <v>2.0</v>
       </c>
-      <c r="H21" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M21" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N21" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O21" s="86"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="86"/>
+      <c r="H21" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="87"/>
       <c r="S21" s="74"/>
       <c r="T21" s="74"/>
       <c r="U21" s="74"/>
@@ -2860,50 +2852,50 @@
       <c r="AA21" s="75"/>
     </row>
     <row r="22">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="77" t="s">
         <v>71</v>
       </c>
       <c r="C22" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="77" t="s">
+      <c r="D22" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="78" t="s">
+      <c r="E22" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="88"/>
-      <c r="G22" s="80">
+      <c r="F22" s="89"/>
+      <c r="G22" s="81">
         <v>5.0</v>
       </c>
-      <c r="H22" s="81" t="s">
+      <c r="H22" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="I22" s="82" t="s">
+      <c r="I22" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="77" t="s">
+      <c r="J22" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="K22" s="89" t="s">
+      <c r="K22" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="L22" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M22" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N22" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O22" s="86"/>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="86"/>
+      <c r="L22" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="87"/>
       <c r="S22" s="74"/>
       <c r="T22" s="74"/>
       <c r="U22" s="74"/>
@@ -2915,50 +2907,50 @@
       <c r="AA22" s="75"/>
     </row>
     <row r="23">
-      <c r="A23" s="61">
+      <c r="A23" s="76">
         <v>24.0</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="77" t="s">
         <v>77</v>
       </c>
       <c r="C23" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="77" t="s">
+      <c r="D23" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="90" t="s">
+      <c r="E23" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="88"/>
-      <c r="G23" s="80">
+      <c r="F23" s="89"/>
+      <c r="G23" s="81">
         <v>1.0</v>
       </c>
-      <c r="H23" s="81" t="s">
+      <c r="H23" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="I23" s="82" t="s">
+      <c r="I23" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="77" t="s">
+      <c r="J23" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="K23" s="89" t="s">
+      <c r="K23" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="L23" s="82" t="s">
+      <c r="L23" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="M23" s="77" t="s">
+      <c r="M23" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="91" t="s">
+      <c r="N23" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="87"/>
       <c r="S23" s="74"/>
       <c r="T23" s="74"/>
       <c r="U23" s="74"/>
@@ -2970,50 +2962,50 @@
       <c r="AA23" s="75"/>
     </row>
     <row r="24">
-      <c r="A24" s="61">
+      <c r="A24" s="76">
         <v>26.0</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="77" t="s">
         <v>84</v>
       </c>
       <c r="C24" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="77" t="s">
+      <c r="D24" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="90" t="s">
+      <c r="E24" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="79"/>
-      <c r="G24" s="80">
+      <c r="F24" s="80"/>
+      <c r="G24" s="81">
         <v>1.0</v>
       </c>
-      <c r="H24" s="81" t="s">
+      <c r="H24" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="I24" s="82" t="s">
+      <c r="I24" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="J24" s="77" t="s">
+      <c r="J24" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="K24" s="89" t="s">
+      <c r="K24" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="L24" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M24" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N24" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O24" s="86"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="86"/>
+      <c r="L24" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="87"/>
       <c r="S24" s="74"/>
       <c r="T24" s="74"/>
       <c r="U24" s="74"/>
@@ -3025,50 +3017,50 @@
       <c r="AA24" s="75"/>
     </row>
     <row r="25">
-      <c r="A25" s="61">
+      <c r="A25" s="76">
         <v>28.0</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="77" t="s">
         <v>90</v>
       </c>
       <c r="C25" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="77" t="s">
+      <c r="D25" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="90" t="s">
+      <c r="E25" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="79"/>
-      <c r="G25" s="80">
+      <c r="F25" s="80"/>
+      <c r="G25" s="81">
         <v>1.0</v>
       </c>
-      <c r="H25" s="81" t="s">
+      <c r="H25" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="I25" s="82" t="s">
+      <c r="I25" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="77" t="s">
+      <c r="J25" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="K25" s="89" t="s">
+      <c r="K25" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="L25" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M25" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N25" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O25" s="86"/>
-      <c r="P25" s="86"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86"/>
+      <c r="L25" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O25" s="87"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="87"/>
       <c r="S25" s="74"/>
       <c r="T25" s="74"/>
       <c r="U25" s="74"/>
@@ -3080,50 +3072,50 @@
       <c r="AA25" s="75"/>
     </row>
     <row r="26">
-      <c r="A26" s="61">
+      <c r="A26" s="76">
         <v>27.0</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="77" t="s">
         <v>94</v>
       </c>
       <c r="C26" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="77" t="s">
+      <c r="D26" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="93"/>
-      <c r="G26" s="80">
+      <c r="E26" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="94"/>
+      <c r="G26" s="81">
         <v>1.0</v>
       </c>
-      <c r="H26" s="81" t="s">
+      <c r="H26" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="I26" s="82" t="s">
+      <c r="I26" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="J26" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="K26" s="89" t="s">
+      <c r="J26" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="L26" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M26" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N26" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O26" s="86"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="86"/>
+      <c r="L26" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O26" s="87"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="87"/>
       <c r="S26" s="74"/>
       <c r="T26" s="74"/>
       <c r="U26" s="74"/>
@@ -3135,50 +3127,50 @@
       <c r="AA26" s="75"/>
     </row>
     <row r="27">
-      <c r="A27" s="61">
+      <c r="A27" s="76">
         <v>29.0</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="77" t="s">
         <v>100</v>
       </c>
       <c r="C27" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="77" t="s">
+      <c r="D27" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="E27" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="93"/>
-      <c r="G27" s="80">
+      <c r="E27" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="94"/>
+      <c r="G27" s="81">
         <v>1.0</v>
       </c>
-      <c r="H27" s="81" t="s">
+      <c r="H27" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="I27" s="82" t="s">
+      <c r="I27" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="J27" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="K27" s="89" t="s">
+      <c r="J27" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="L27" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M27" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N27" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O27" s="86"/>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="86"/>
-      <c r="R27" s="86"/>
+      <c r="L27" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O27" s="87"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="87"/>
+      <c r="R27" s="87"/>
       <c r="S27" s="74"/>
       <c r="T27" s="74"/>
       <c r="U27" s="74"/>
@@ -3190,50 +3182,50 @@
       <c r="AA27" s="75"/>
     </row>
     <row r="28">
-      <c r="A28" s="61">
+      <c r="A28" s="76">
         <v>30.0</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="77" t="s">
         <v>103</v>
       </c>
       <c r="C28" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="77" t="s">
+      <c r="D28" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="78" t="s">
+      <c r="E28" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="79"/>
-      <c r="G28" s="80">
+      <c r="F28" s="80"/>
+      <c r="G28" s="81">
         <v>1.0</v>
       </c>
-      <c r="H28" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="J28" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="K28" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M28" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N28" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O28" s="86"/>
-      <c r="P28" s="86"/>
-      <c r="Q28" s="86"/>
-      <c r="R28" s="86"/>
+      <c r="H28" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M28" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O28" s="87"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="87"/>
+      <c r="R28" s="87"/>
       <c r="S28" s="74"/>
       <c r="T28" s="74"/>
       <c r="U28" s="74"/>
@@ -3245,50 +3237,50 @@
       <c r="AA28" s="75"/>
     </row>
     <row r="29">
-      <c r="A29" s="61">
+      <c r="A29" s="76">
         <v>31.0</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="77" t="s">
         <v>106</v>
       </c>
       <c r="C29" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="77" t="s">
+      <c r="D29" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="E29" s="94" t="s">
+      <c r="E29" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="79"/>
-      <c r="G29" s="80">
+      <c r="F29" s="80"/>
+      <c r="G29" s="81">
         <v>1.0</v>
       </c>
-      <c r="H29" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="J29" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="K29" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="L29" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M29" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N29" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O29" s="86"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="86"/>
+      <c r="H29" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="J29" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M29" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O29" s="87"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="87"/>
+      <c r="R29" s="87"/>
       <c r="S29" s="74"/>
       <c r="T29" s="74"/>
       <c r="U29" s="74"/>
@@ -3300,50 +3292,50 @@
       <c r="AA29" s="75"/>
     </row>
     <row r="30">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="77" t="s">
         <v>110</v>
       </c>
       <c r="C30" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="77" t="s">
+      <c r="D30" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="90" t="s">
+      <c r="E30" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="F30" s="93"/>
-      <c r="G30" s="80">
+      <c r="F30" s="94"/>
+      <c r="G30" s="81">
         <v>2.0</v>
       </c>
-      <c r="H30" s="81" t="s">
+      <c r="H30" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="I30" s="82" t="s">
+      <c r="I30" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="77" t="s">
+      <c r="J30" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="K30" s="89" t="s">
+      <c r="K30" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="L30" s="82" t="s">
+      <c r="L30" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="M30" s="77" t="s">
+      <c r="M30" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="N30" s="91" t="s">
+      <c r="N30" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="O30" s="86"/>
-      <c r="P30" s="86"/>
-      <c r="Q30" s="86"/>
-      <c r="R30" s="86"/>
+      <c r="O30" s="87"/>
+      <c r="P30" s="87"/>
+      <c r="Q30" s="87"/>
+      <c r="R30" s="87"/>
       <c r="S30" s="74"/>
       <c r="T30" s="74"/>
       <c r="U30" s="74"/>
@@ -3355,52 +3347,52 @@
       <c r="AA30" s="75"/>
     </row>
     <row r="31">
-      <c r="A31" s="61" t="s">
+      <c r="A31" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="77" t="s">
         <v>118</v>
       </c>
       <c r="C31" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="77" t="s">
+      <c r="D31" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="78" t="s">
+      <c r="E31" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="F31" s="88" t="s">
+      <c r="F31" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="G31" s="80">
+      <c r="G31" s="81">
         <v>5.0</v>
       </c>
-      <c r="H31" s="81" t="s">
+      <c r="H31" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="I31" s="82" t="s">
+      <c r="I31" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="J31" s="77" t="s">
+      <c r="J31" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="K31" s="89" t="s">
+      <c r="K31" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="82" t="s">
+      <c r="L31" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="M31" s="77" t="s">
+      <c r="M31" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="N31" s="91" t="s">
+      <c r="N31" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="O31" s="86"/>
-      <c r="P31" s="86"/>
-      <c r="Q31" s="86"/>
-      <c r="R31" s="86"/>
+      <c r="O31" s="87"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="87"/>
+      <c r="R31" s="87"/>
       <c r="S31" s="74"/>
       <c r="T31" s="74"/>
       <c r="U31" s="74"/>
@@ -3412,50 +3404,50 @@
       <c r="AA31" s="75"/>
     </row>
     <row r="32">
-      <c r="A32" s="61">
+      <c r="A32" s="76">
         <v>39.0</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="77" t="s">
         <v>126</v>
       </c>
       <c r="C32" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="77" t="s">
+      <c r="D32" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="78" t="s">
+      <c r="E32" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="79"/>
-      <c r="G32" s="80">
+      <c r="F32" s="80"/>
+      <c r="G32" s="81">
         <v>1.0</v>
       </c>
-      <c r="H32" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="I32" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="J32" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="K32" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="L32" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M32" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N32" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O32" s="86"/>
-      <c r="P32" s="86"/>
-      <c r="Q32" s="86"/>
-      <c r="R32" s="86"/>
+      <c r="H32" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M32" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N32" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O32" s="87"/>
+      <c r="P32" s="87"/>
+      <c r="Q32" s="87"/>
+      <c r="R32" s="87"/>
       <c r="S32" s="74"/>
       <c r="T32" s="74"/>
       <c r="U32" s="74"/>
@@ -3467,50 +3459,50 @@
       <c r="AA32" s="75"/>
     </row>
     <row r="33">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="77" t="s">
         <v>130</v>
       </c>
       <c r="C33" s="63">
         <v>200.0</v>
       </c>
-      <c r="D33" s="77" t="s">
+      <c r="D33" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="78" t="s">
+      <c r="E33" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="79"/>
-      <c r="G33" s="80">
+      <c r="F33" s="80"/>
+      <c r="G33" s="81">
         <v>2.0</v>
       </c>
-      <c r="H33" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="I33" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="J33" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="K33" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="L33" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M33" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N33" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O33" s="86"/>
-      <c r="P33" s="86"/>
-      <c r="Q33" s="86"/>
-      <c r="R33" s="86"/>
+      <c r="H33" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M33" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N33" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O33" s="87"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="87"/>
+      <c r="R33" s="87"/>
       <c r="S33" s="74"/>
       <c r="T33" s="74"/>
       <c r="U33" s="74"/>
@@ -3522,50 +3514,50 @@
       <c r="AA33" s="75"/>
     </row>
     <row r="34">
-      <c r="A34" s="61">
+      <c r="A34" s="76">
         <v>41.0</v>
       </c>
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="77" t="s">
         <v>131</v>
       </c>
       <c r="C34" s="63">
         <v>499.0</v>
       </c>
-      <c r="D34" s="77" t="s">
+      <c r="D34" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="78" t="s">
+      <c r="E34" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="79"/>
-      <c r="G34" s="80">
+      <c r="F34" s="80"/>
+      <c r="G34" s="81">
         <v>1.0</v>
       </c>
-      <c r="H34" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="I34" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="J34" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="K34" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="L34" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M34" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N34" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O34" s="86"/>
-      <c r="P34" s="86"/>
-      <c r="Q34" s="86"/>
-      <c r="R34" s="86"/>
+      <c r="H34" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="J34" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M34" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N34" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87"/>
+      <c r="R34" s="87"/>
       <c r="S34" s="74"/>
       <c r="T34" s="74"/>
       <c r="U34" s="74"/>
@@ -3577,50 +3569,50 @@
       <c r="AA34" s="75"/>
     </row>
     <row r="35">
-      <c r="A35" s="61" t="s">
+      <c r="A35" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="77" t="s">
         <v>133</v>
       </c>
       <c r="C35" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="D35" s="77" t="s">
+      <c r="D35" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="E35" s="78" t="s">
+      <c r="E35" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="79"/>
-      <c r="G35" s="80">
+      <c r="F35" s="80"/>
+      <c r="G35" s="81">
         <v>6.0</v>
       </c>
-      <c r="H35" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="I35" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="J35" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="K35" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="L35" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M35" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N35" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O35" s="86"/>
-      <c r="P35" s="86"/>
-      <c r="Q35" s="86"/>
-      <c r="R35" s="86"/>
+      <c r="H35" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="K35" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M35" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N35" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O35" s="87"/>
+      <c r="P35" s="87"/>
+      <c r="Q35" s="87"/>
+      <c r="R35" s="87"/>
       <c r="S35" s="74"/>
       <c r="T35" s="74"/>
       <c r="U35" s="74"/>
@@ -3632,50 +3624,50 @@
       <c r="AA35" s="75"/>
     </row>
     <row r="36">
-      <c r="A36" s="61">
+      <c r="A36" s="76">
         <v>43.0</v>
       </c>
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="77" t="s">
         <v>135</v>
       </c>
       <c r="C36" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="D36" s="77" t="s">
+      <c r="D36" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="E36" s="78" t="s">
+      <c r="E36" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="79"/>
-      <c r="G36" s="80">
+      <c r="F36" s="80"/>
+      <c r="G36" s="81">
         <v>1.0</v>
       </c>
-      <c r="H36" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="I36" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="J36" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="K36" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="L36" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M36" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N36" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O36" s="86"/>
-      <c r="P36" s="86"/>
-      <c r="Q36" s="86"/>
-      <c r="R36" s="86"/>
+      <c r="H36" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="J36" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="K36" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L36" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M36" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N36" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O36" s="87"/>
+      <c r="P36" s="87"/>
+      <c r="Q36" s="87"/>
+      <c r="R36" s="87"/>
       <c r="S36" s="74"/>
       <c r="T36" s="74"/>
       <c r="U36" s="74"/>
@@ -3687,50 +3679,50 @@
       <c r="AA36" s="75"/>
     </row>
     <row r="37">
-      <c r="A37" s="61">
-        <v>45.0</v>
-      </c>
-      <c r="B37" s="62" t="s">
+      <c r="A37" s="76">
+        <v>46.0</v>
+      </c>
+      <c r="B37" s="77" t="s">
         <v>137</v>
       </c>
       <c r="C37" s="63">
         <v>260.0</v>
       </c>
-      <c r="D37" s="77" t="s">
+      <c r="D37" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="E37" s="78" t="s">
+      <c r="E37" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="79"/>
-      <c r="G37" s="80">
+      <c r="F37" s="80"/>
+      <c r="G37" s="81">
         <v>1.0</v>
       </c>
-      <c r="H37" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="I37" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="J37" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="K37" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="L37" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M37" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N37" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O37" s="86"/>
-      <c r="P37" s="86"/>
-      <c r="Q37" s="86"/>
-      <c r="R37" s="86"/>
+      <c r="H37" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="J37" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="K37" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L37" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M37" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N37" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O37" s="87"/>
+      <c r="P37" s="87"/>
+      <c r="Q37" s="87"/>
+      <c r="R37" s="87"/>
       <c r="S37" s="74"/>
       <c r="T37" s="74"/>
       <c r="U37" s="74"/>
@@ -3742,50 +3734,50 @@
       <c r="AA37" s="75"/>
     </row>
     <row r="38">
-      <c r="A38" s="61">
-        <v>47.0</v>
-      </c>
-      <c r="B38" s="62" t="s">
+      <c r="A38" s="76">
+        <v>48.0</v>
+      </c>
+      <c r="B38" s="77" t="s">
         <v>138</v>
       </c>
       <c r="C38" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="D38" s="77" t="s">
+      <c r="D38" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="E38" s="78" t="s">
+      <c r="E38" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="79"/>
-      <c r="G38" s="80">
+      <c r="F38" s="80"/>
+      <c r="G38" s="81">
         <v>1.0</v>
       </c>
-      <c r="H38" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="I38" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="J38" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="K38" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="L38" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M38" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N38" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O38" s="86"/>
-      <c r="P38" s="86"/>
-      <c r="Q38" s="86"/>
-      <c r="R38" s="86"/>
+      <c r="H38" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="J38" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="K38" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L38" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M38" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N38" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O38" s="87"/>
+      <c r="P38" s="87"/>
+      <c r="Q38" s="87"/>
+      <c r="R38" s="87"/>
       <c r="S38" s="74"/>
       <c r="T38" s="74"/>
       <c r="U38" s="74"/>
@@ -3797,50 +3789,50 @@
       <c r="AA38" s="75"/>
     </row>
     <row r="39">
-      <c r="A39" s="61" t="s">
+      <c r="A39" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="77" t="s">
         <v>141</v>
       </c>
       <c r="C39" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="D39" s="77" t="s">
+      <c r="D39" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="78" t="s">
+      <c r="E39" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="79"/>
-      <c r="G39" s="80">
+      <c r="F39" s="80"/>
+      <c r="G39" s="81">
         <v>4.0</v>
       </c>
-      <c r="H39" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="I39" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="J39" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="K39" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="L39" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M39" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N39" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O39" s="86"/>
-      <c r="P39" s="86"/>
-      <c r="Q39" s="86"/>
-      <c r="R39" s="86"/>
+      <c r="H39" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="J39" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="K39" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L39" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M39" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N39" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O39" s="87"/>
+      <c r="P39" s="87"/>
+      <c r="Q39" s="87"/>
+      <c r="R39" s="87"/>
       <c r="S39" s="74"/>
       <c r="T39" s="74"/>
       <c r="U39" s="74"/>
@@ -3852,50 +3844,50 @@
       <c r="AA39" s="75"/>
     </row>
     <row r="40">
-      <c r="A40" s="61">
-        <v>50.0</v>
-      </c>
-      <c r="B40" s="62" t="s">
+      <c r="A40" s="76">
+        <v>51.0</v>
+      </c>
+      <c r="B40" s="77" t="s">
         <v>143</v>
       </c>
       <c r="C40" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="D40" s="77" t="s">
+      <c r="D40" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="E40" s="78" t="s">
+      <c r="E40" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="79"/>
-      <c r="G40" s="80">
+      <c r="F40" s="80"/>
+      <c r="G40" s="81">
         <v>1.0</v>
       </c>
-      <c r="H40" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="I40" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="J40" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="K40" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="L40" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M40" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N40" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O40" s="86"/>
-      <c r="P40" s="86"/>
-      <c r="Q40" s="86"/>
-      <c r="R40" s="86"/>
+      <c r="H40" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="I40" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="J40" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="K40" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L40" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M40" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N40" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O40" s="87"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="87"/>
+      <c r="R40" s="87"/>
       <c r="S40" s="74"/>
       <c r="T40" s="74"/>
       <c r="U40" s="74"/>
@@ -3907,50 +3899,50 @@
       <c r="AA40" s="75"/>
     </row>
     <row r="41">
-      <c r="A41" s="61">
-        <v>51.0</v>
-      </c>
-      <c r="B41" s="62" t="s">
+      <c r="A41" s="76">
+        <v>52.0</v>
+      </c>
+      <c r="B41" s="77" t="s">
         <v>145</v>
       </c>
       <c r="C41" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="D41" s="77" t="s">
+      <c r="D41" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="E41" s="78" t="s">
+      <c r="E41" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F41" s="79"/>
-      <c r="G41" s="80">
+      <c r="F41" s="80"/>
+      <c r="G41" s="81">
         <v>1.0</v>
       </c>
-      <c r="H41" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="I41" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="J41" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="K41" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="L41" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M41" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N41" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O41" s="86"/>
-      <c r="P41" s="86"/>
-      <c r="Q41" s="86"/>
-      <c r="R41" s="86"/>
+      <c r="H41" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="J41" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="K41" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L41" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M41" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N41" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O41" s="87"/>
+      <c r="P41" s="87"/>
+      <c r="Q41" s="87"/>
+      <c r="R41" s="87"/>
       <c r="S41" s="74"/>
       <c r="T41" s="74"/>
       <c r="U41" s="74"/>
@@ -3962,50 +3954,50 @@
       <c r="AA41" s="75"/>
     </row>
     <row r="42">
-      <c r="A42" s="61">
-        <v>52.0</v>
-      </c>
-      <c r="B42" s="62" t="s">
+      <c r="A42" s="76">
+        <v>53.0</v>
+      </c>
+      <c r="B42" s="77" t="s">
         <v>147</v>
       </c>
       <c r="C42" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="D42" s="77" t="s">
+      <c r="D42" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="78" t="s">
+      <c r="E42" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F42" s="79"/>
-      <c r="G42" s="80">
+      <c r="F42" s="80"/>
+      <c r="G42" s="81">
         <v>1.0</v>
       </c>
-      <c r="H42" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="I42" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="J42" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="K42" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="L42" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M42" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N42" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O42" s="86"/>
-      <c r="P42" s="86"/>
-      <c r="Q42" s="86"/>
-      <c r="R42" s="86"/>
+      <c r="H42" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="J42" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="K42" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L42" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M42" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N42" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O42" s="87"/>
+      <c r="P42" s="87"/>
+      <c r="Q42" s="87"/>
+      <c r="R42" s="87"/>
       <c r="S42" s="74"/>
       <c r="T42" s="74"/>
       <c r="U42" s="74"/>
@@ -4017,50 +4009,50 @@
       <c r="AA42" s="75"/>
     </row>
     <row r="43">
-      <c r="A43" s="61">
-        <v>53.0</v>
-      </c>
-      <c r="B43" s="62" t="s">
+      <c r="A43" s="76">
+        <v>54.0</v>
+      </c>
+      <c r="B43" s="77" t="s">
         <v>149</v>
       </c>
       <c r="C43" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="D43" s="77" t="s">
+      <c r="D43" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="E43" s="78" t="s">
+      <c r="E43" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="79"/>
-      <c r="G43" s="80">
+      <c r="F43" s="80"/>
+      <c r="G43" s="81">
         <v>1.0</v>
       </c>
-      <c r="H43" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="I43" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="J43" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="K43" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="L43" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M43" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N43" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O43" s="86"/>
-      <c r="P43" s="86"/>
-      <c r="Q43" s="86"/>
-      <c r="R43" s="86"/>
+      <c r="H43" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="J43" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="K43" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L43" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M43" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N43" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O43" s="87"/>
+      <c r="P43" s="87"/>
+      <c r="Q43" s="87"/>
+      <c r="R43" s="87"/>
       <c r="S43" s="74"/>
       <c r="T43" s="74"/>
       <c r="U43" s="74"/>
@@ -4072,50 +4064,50 @@
       <c r="AA43" s="75"/>
     </row>
     <row r="44">
-      <c r="A44" s="61" t="s">
+      <c r="A44" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="77" t="s">
         <v>152</v>
       </c>
       <c r="C44" s="63">
         <v>130.0</v>
       </c>
-      <c r="D44" s="77" t="s">
+      <c r="D44" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="E44" s="78" t="s">
+      <c r="E44" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="79"/>
-      <c r="G44" s="80">
+      <c r="F44" s="80"/>
+      <c r="G44" s="81">
         <v>5.0</v>
       </c>
-      <c r="H44" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="I44" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="J44" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="K44" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="L44" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M44" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N44" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O44" s="86"/>
-      <c r="P44" s="86"/>
-      <c r="Q44" s="86"/>
-      <c r="R44" s="86"/>
+      <c r="H44" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="I44" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="J44" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="K44" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L44" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M44" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N44" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O44" s="87"/>
+      <c r="P44" s="87"/>
+      <c r="Q44" s="87"/>
+      <c r="R44" s="87"/>
       <c r="S44" s="74"/>
       <c r="T44" s="74"/>
       <c r="U44" s="74"/>
@@ -4127,50 +4119,50 @@
       <c r="AA44" s="75"/>
     </row>
     <row r="45">
-      <c r="A45" s="61">
+      <c r="A45" s="76">
         <v>44.0</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="77" t="s">
         <v>153</v>
       </c>
       <c r="C45" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="D45" s="77" t="s">
+      <c r="D45" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="E45" s="78" t="s">
+      <c r="E45" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="F45" s="93"/>
-      <c r="G45" s="80">
+      <c r="F45" s="94"/>
+      <c r="G45" s="81">
         <v>1.0</v>
       </c>
-      <c r="H45" s="81" t="s">
+      <c r="H45" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="I45" s="82" t="s">
+      <c r="I45" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="J45" s="77" t="s">
+      <c r="J45" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="K45" s="89" t="s">
+      <c r="K45" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="L45" s="82" t="s">
+      <c r="L45" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="M45" s="77" t="s">
+      <c r="M45" s="78" t="s">
         <v>159</v>
       </c>
-      <c r="N45" s="91" t="s">
+      <c r="N45" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="O45" s="86"/>
-      <c r="P45" s="86"/>
-      <c r="Q45" s="86"/>
-      <c r="R45" s="86"/>
+      <c r="O45" s="87"/>
+      <c r="P45" s="87"/>
+      <c r="Q45" s="87"/>
+      <c r="R45" s="87"/>
       <c r="S45" s="74"/>
       <c r="T45" s="74"/>
       <c r="U45" s="74"/>
@@ -4182,50 +4174,50 @@
       <c r="AA45" s="75"/>
     </row>
     <row r="46">
-      <c r="A46" s="61">
-        <v>66.0</v>
-      </c>
-      <c r="B46" s="62" t="s">
+      <c r="A46" s="76">
+        <v>67.0</v>
+      </c>
+      <c r="B46" s="77" t="s">
         <v>160</v>
       </c>
       <c r="C46" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="D46" s="77" t="s">
+      <c r="D46" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="E46" s="78" t="s">
+      <c r="E46" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="F46" s="93"/>
-      <c r="G46" s="80">
+      <c r="F46" s="94"/>
+      <c r="G46" s="81">
         <v>1.0</v>
       </c>
-      <c r="H46" s="81" t="s">
+      <c r="H46" s="82" t="s">
         <v>164</v>
       </c>
-      <c r="I46" s="82" t="s">
+      <c r="I46" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="J46" s="77" t="s">
+      <c r="J46" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="K46" s="89" t="s">
+      <c r="K46" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="L46" s="82" t="s">
+      <c r="L46" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="M46" s="77" t="s">
+      <c r="M46" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="N46" s="91" t="s">
+      <c r="N46" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="O46" s="86"/>
-      <c r="P46" s="86"/>
-      <c r="Q46" s="86"/>
-      <c r="R46" s="86"/>
+      <c r="O46" s="87"/>
+      <c r="P46" s="87"/>
+      <c r="Q46" s="87"/>
+      <c r="R46" s="87"/>
       <c r="S46" s="74"/>
       <c r="T46" s="74"/>
       <c r="U46" s="74"/>
@@ -4237,50 +4229,50 @@
       <c r="AA46" s="75"/>
     </row>
     <row r="47">
-      <c r="A47" s="61">
-        <v>67.0</v>
-      </c>
-      <c r="B47" s="62" t="s">
+      <c r="A47" s="76">
+        <v>68.0</v>
+      </c>
+      <c r="B47" s="77" t="s">
         <v>167</v>
       </c>
       <c r="C47" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="D47" s="77" t="s">
+      <c r="D47" s="78" t="s">
         <v>169</v>
       </c>
-      <c r="E47" s="78" t="s">
+      <c r="E47" s="79" t="s">
         <v>170</v>
       </c>
-      <c r="F47" s="93"/>
-      <c r="G47" s="80">
+      <c r="F47" s="94"/>
+      <c r="G47" s="81">
         <v>1.0</v>
       </c>
-      <c r="H47" s="81" t="s">
+      <c r="H47" s="82" t="s">
         <v>171</v>
       </c>
-      <c r="I47" s="82" t="s">
+      <c r="I47" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="J47" s="77" t="s">
+      <c r="J47" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="K47" s="89" t="s">
+      <c r="K47" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="L47" s="82" t="s">
+      <c r="L47" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="M47" s="77" t="s">
+      <c r="M47" s="78" t="s">
         <v>173</v>
       </c>
-      <c r="N47" s="91" t="s">
+      <c r="N47" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="O47" s="86"/>
-      <c r="P47" s="86"/>
-      <c r="Q47" s="86"/>
-      <c r="R47" s="86"/>
+      <c r="O47" s="87"/>
+      <c r="P47" s="87"/>
+      <c r="Q47" s="87"/>
+      <c r="R47" s="87"/>
       <c r="S47" s="74"/>
       <c r="T47" s="74"/>
       <c r="U47" s="74"/>
@@ -4292,50 +4284,50 @@
       <c r="AA47" s="75"/>
     </row>
     <row r="48">
-      <c r="A48" s="61">
-        <v>68.0</v>
-      </c>
-      <c r="B48" s="62" t="s">
+      <c r="A48" s="76">
+        <v>69.0</v>
+      </c>
+      <c r="B48" s="77" t="s">
         <v>174</v>
       </c>
       <c r="C48" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="D48" s="77" t="s">
+      <c r="D48" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="E48" s="78" t="s">
+      <c r="E48" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="F48" s="93"/>
-      <c r="G48" s="80">
+      <c r="F48" s="94"/>
+      <c r="G48" s="81">
         <v>1.0</v>
       </c>
-      <c r="H48" s="81" t="s">
+      <c r="H48" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="I48" s="82" t="s">
+      <c r="I48" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="J48" s="77" t="s">
+      <c r="J48" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="K48" s="89" t="s">
+      <c r="K48" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="L48" s="82" t="s">
+      <c r="L48" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="M48" s="77" t="s">
+      <c r="M48" s="78" t="s">
         <v>180</v>
       </c>
-      <c r="N48" s="91" t="s">
+      <c r="N48" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="O48" s="86"/>
-      <c r="P48" s="86"/>
-      <c r="Q48" s="86"/>
-      <c r="R48" s="86"/>
+      <c r="O48" s="87"/>
+      <c r="P48" s="87"/>
+      <c r="Q48" s="87"/>
+      <c r="R48" s="87"/>
       <c r="S48" s="74"/>
       <c r="T48" s="74"/>
       <c r="U48" s="74"/>
@@ -4347,50 +4339,50 @@
       <c r="AA48" s="75"/>
     </row>
     <row r="49">
-      <c r="A49" s="61">
-        <v>69.0</v>
-      </c>
-      <c r="B49" s="62" t="s">
+      <c r="A49" s="76">
+        <v>70.0</v>
+      </c>
+      <c r="B49" s="77" t="s">
         <v>181</v>
       </c>
       <c r="C49" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="D49" s="77" t="s">
+      <c r="D49" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="E49" s="78" t="s">
+      <c r="E49" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="F49" s="93"/>
-      <c r="G49" s="80">
+      <c r="F49" s="94"/>
+      <c r="G49" s="81">
         <v>1.0</v>
       </c>
-      <c r="H49" s="81" t="s">
+      <c r="H49" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="I49" s="82" t="s">
+      <c r="I49" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="J49" s="77" t="s">
+      <c r="J49" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="K49" s="89" t="s">
+      <c r="K49" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="L49" s="82" t="s">
+      <c r="L49" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="M49" s="77" t="s">
+      <c r="M49" s="78" t="s">
         <v>187</v>
       </c>
-      <c r="N49" s="91" t="s">
+      <c r="N49" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="O49" s="86"/>
-      <c r="P49" s="86"/>
-      <c r="Q49" s="86"/>
-      <c r="R49" s="86"/>
+      <c r="O49" s="87"/>
+      <c r="P49" s="87"/>
+      <c r="Q49" s="87"/>
+      <c r="R49" s="87"/>
       <c r="S49" s="74"/>
       <c r="T49" s="74"/>
       <c r="U49" s="74"/>
@@ -4402,50 +4394,50 @@
       <c r="AA49" s="75"/>
     </row>
     <row r="50">
-      <c r="A50" s="61">
-        <v>70.0</v>
-      </c>
-      <c r="B50" s="62" t="s">
+      <c r="A50" s="76">
+        <v>71.0</v>
+      </c>
+      <c r="B50" s="77" t="s">
         <v>188</v>
       </c>
       <c r="C50" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="D50" s="77" t="s">
+      <c r="D50" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="E50" s="78" t="s">
+      <c r="E50" s="79" t="s">
         <v>191</v>
       </c>
-      <c r="F50" s="93"/>
-      <c r="G50" s="80">
+      <c r="F50" s="94"/>
+      <c r="G50" s="81">
         <v>1.0</v>
       </c>
-      <c r="H50" s="81" t="s">
+      <c r="H50" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="I50" s="82" t="s">
+      <c r="I50" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="J50" s="77" t="s">
+      <c r="J50" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="K50" s="89" t="s">
+      <c r="K50" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="L50" s="82" t="s">
+      <c r="L50" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="M50" s="77" t="s">
+      <c r="M50" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="N50" s="91" t="s">
+      <c r="N50" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="O50" s="86"/>
-      <c r="P50" s="86"/>
-      <c r="Q50" s="86"/>
-      <c r="R50" s="86"/>
+      <c r="O50" s="87"/>
+      <c r="P50" s="87"/>
+      <c r="Q50" s="87"/>
+      <c r="R50" s="87"/>
       <c r="S50" s="74"/>
       <c r="T50" s="74"/>
       <c r="U50" s="74"/>
@@ -4457,50 +4449,50 @@
       <c r="AA50" s="75"/>
     </row>
     <row r="51">
-      <c r="A51" s="61">
-        <v>71.0</v>
-      </c>
-      <c r="B51" s="62" t="s">
+      <c r="A51" s="76">
+        <v>72.0</v>
+      </c>
+      <c r="B51" s="77" t="s">
         <v>194</v>
       </c>
       <c r="C51" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D51" s="77" t="s">
+      <c r="D51" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="E51" s="78" t="s">
+      <c r="E51" s="79" t="s">
         <v>197</v>
       </c>
-      <c r="F51" s="93"/>
-      <c r="G51" s="80">
+      <c r="F51" s="94"/>
+      <c r="G51" s="81">
         <v>1.0</v>
       </c>
-      <c r="H51" s="81" t="s">
+      <c r="H51" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="I51" s="82" t="s">
+      <c r="I51" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="J51" s="77" t="s">
+      <c r="J51" s="78" t="s">
         <v>198</v>
       </c>
-      <c r="K51" s="89" t="s">
+      <c r="K51" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="L51" s="82" t="s">
+      <c r="L51" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="M51" s="77" t="s">
+      <c r="M51" s="78" t="s">
         <v>199</v>
       </c>
-      <c r="N51" s="91" t="s">
+      <c r="N51" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="O51" s="86"/>
-      <c r="P51" s="86"/>
-      <c r="Q51" s="86"/>
-      <c r="R51" s="86"/>
+      <c r="O51" s="87"/>
+      <c r="P51" s="87"/>
+      <c r="Q51" s="87"/>
+      <c r="R51" s="87"/>
       <c r="S51" s="74"/>
       <c r="T51" s="74"/>
       <c r="U51" s="74"/>
@@ -4512,50 +4504,50 @@
       <c r="AA51" s="75"/>
     </row>
     <row r="52">
-      <c r="A52" s="61">
-        <v>72.0</v>
-      </c>
-      <c r="B52" s="62" t="s">
+      <c r="A52" s="76">
+        <v>73.0</v>
+      </c>
+      <c r="B52" s="77" t="s">
         <v>200</v>
       </c>
       <c r="C52" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="D52" s="77" t="s">
+      <c r="D52" s="78" t="s">
         <v>202</v>
       </c>
-      <c r="E52" s="78" t="s">
+      <c r="E52" s="79" t="s">
         <v>203</v>
       </c>
-      <c r="F52" s="93"/>
-      <c r="G52" s="80">
+      <c r="F52" s="94"/>
+      <c r="G52" s="81">
         <v>1.0</v>
       </c>
-      <c r="H52" s="81" t="s">
+      <c r="H52" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="I52" s="82" t="s">
+      <c r="I52" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="J52" s="77" t="s">
+      <c r="J52" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="K52" s="89" t="s">
+      <c r="K52" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="L52" s="82" t="s">
+      <c r="L52" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="M52" s="77" t="s">
+      <c r="M52" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="N52" s="91" t="s">
+      <c r="N52" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="O52" s="86"/>
-      <c r="P52" s="86"/>
-      <c r="Q52" s="86"/>
-      <c r="R52" s="86"/>
+      <c r="O52" s="87"/>
+      <c r="P52" s="87"/>
+      <c r="Q52" s="87"/>
+      <c r="R52" s="87"/>
       <c r="S52" s="74"/>
       <c r="T52" s="74"/>
       <c r="U52" s="74"/>
@@ -4567,50 +4559,50 @@
       <c r="AA52" s="75"/>
     </row>
     <row r="53">
-      <c r="A53" s="61">
-        <v>73.0</v>
-      </c>
-      <c r="B53" s="62" t="s">
+      <c r="A53" s="76">
+        <v>74.0</v>
+      </c>
+      <c r="B53" s="77" t="s">
         <v>206</v>
       </c>
       <c r="C53" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="D53" s="77" t="s">
+      <c r="D53" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="E53" s="78" t="s">
+      <c r="E53" s="79" t="s">
         <v>209</v>
       </c>
-      <c r="F53" s="88"/>
-      <c r="G53" s="80">
+      <c r="F53" s="89"/>
+      <c r="G53" s="81">
         <v>1.0</v>
       </c>
-      <c r="H53" s="81" t="s">
+      <c r="H53" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="I53" s="82" t="s">
+      <c r="I53" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="J53" s="77" t="s">
+      <c r="J53" s="78" t="s">
         <v>211</v>
       </c>
-      <c r="K53" s="89" t="s">
+      <c r="K53" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="L53" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="M53" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N53" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="O53" s="86"/>
-      <c r="P53" s="86"/>
-      <c r="Q53" s="86"/>
-      <c r="R53" s="86"/>
+      <c r="L53" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M53" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N53" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O53" s="87"/>
+      <c r="P53" s="87"/>
+      <c r="Q53" s="87"/>
+      <c r="R53" s="87"/>
       <c r="S53" s="74"/>
       <c r="T53" s="74"/>
       <c r="U53" s="74"/>
@@ -4622,32 +4614,32 @@
       <c r="AA53" s="75"/>
     </row>
     <row r="54">
-      <c r="A54" s="95">
+      <c r="A54" s="96">
         <v>25.0</v>
       </c>
-      <c r="B54" s="96" t="s">
+      <c r="B54" s="97" t="s">
         <v>212</v>
       </c>
-      <c r="C54" s="97" t="s">
+      <c r="C54" s="98" t="s">
         <v>213</v>
       </c>
-      <c r="D54" s="98" t="s">
+      <c r="D54" s="99" t="s">
         <v>214</v>
       </c>
-      <c r="E54" s="99"/>
-      <c r="F54" s="99"/>
-      <c r="G54" s="99"/>
-      <c r="H54" s="99"/>
-      <c r="I54" s="99"/>
-      <c r="J54" s="99"/>
-      <c r="K54" s="99"/>
-      <c r="L54" s="99"/>
-      <c r="M54" s="99"/>
-      <c r="N54" s="100"/>
-      <c r="O54" s="86"/>
-      <c r="P54" s="86"/>
-      <c r="Q54" s="86"/>
-      <c r="R54" s="86"/>
+      <c r="E54" s="100"/>
+      <c r="F54" s="100"/>
+      <c r="G54" s="100"/>
+      <c r="H54" s="100"/>
+      <c r="I54" s="100"/>
+      <c r="J54" s="100"/>
+      <c r="K54" s="100"/>
+      <c r="L54" s="100"/>
+      <c r="M54" s="100"/>
+      <c r="N54" s="101"/>
+      <c r="O54" s="87"/>
+      <c r="P54" s="87"/>
+      <c r="Q54" s="87"/>
+      <c r="R54" s="87"/>
       <c r="S54" s="74"/>
       <c r="T54" s="74"/>
       <c r="U54" s="74"/>
@@ -4673,10 +4665,10 @@
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
-      <c r="O55" s="86"/>
-      <c r="P55" s="86"/>
-      <c r="Q55" s="86"/>
-      <c r="R55" s="86"/>
+      <c r="O55" s="87"/>
+      <c r="P55" s="87"/>
+      <c r="Q55" s="87"/>
+      <c r="R55" s="87"/>
       <c r="S55" s="74"/>
       <c r="T55" s="74"/>
       <c r="U55" s="74"/>
@@ -4688,12 +4680,12 @@
       <c r="AA55" s="75"/>
     </row>
     <row r="56">
-      <c r="A56" s="101" t="s">
+      <c r="A56" s="102" t="s">
         <v>215</v>
       </c>
       <c r="B56" s="15"/>
-      <c r="C56" s="102"/>
-      <c r="D56" s="103" t="s">
+      <c r="C56" s="103"/>
+      <c r="D56" s="104" t="s">
         <v>216</v>
       </c>
       <c r="E56" s="37"/>
@@ -4706,12 +4698,12 @@
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
-      <c r="O56" s="86"/>
-      <c r="P56" s="86"/>
-      <c r="Q56" s="86"/>
-      <c r="R56" s="86"/>
-      <c r="S56" s="86"/>
-      <c r="T56" s="86"/>
+      <c r="O56" s="87"/>
+      <c r="P56" s="87"/>
+      <c r="Q56" s="87"/>
+      <c r="R56" s="87"/>
+      <c r="S56" s="87"/>
+      <c r="T56" s="87"/>
       <c r="U56" s="74"/>
       <c r="V56" s="74"/>
       <c r="W56" s="74"/>
@@ -4723,8 +4715,8 @@
     <row r="57">
       <c r="A57" s="22"/>
       <c r="B57" s="23"/>
-      <c r="C57" s="104"/>
-      <c r="D57" s="103" t="s">
+      <c r="C57" s="105"/>
+      <c r="D57" s="104" t="s">
         <v>217</v>
       </c>
       <c r="E57" s="37"/>
@@ -4737,12 +4729,12 @@
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
-      <c r="O57" s="86"/>
-      <c r="P57" s="86"/>
-      <c r="Q57" s="86"/>
-      <c r="R57" s="86"/>
-      <c r="S57" s="86"/>
-      <c r="T57" s="86"/>
+      <c r="O57" s="87"/>
+      <c r="P57" s="87"/>
+      <c r="Q57" s="87"/>
+      <c r="R57" s="87"/>
+      <c r="S57" s="87"/>
+      <c r="T57" s="87"/>
       <c r="U57" s="74"/>
       <c r="V57" s="74"/>
       <c r="W57" s="74"/>
@@ -4754,8 +4746,8 @@
     <row r="58">
       <c r="A58" s="30"/>
       <c r="B58" s="31"/>
-      <c r="C58" s="105"/>
-      <c r="D58" s="103" t="s">
+      <c r="C58" s="106"/>
+      <c r="D58" s="104" t="s">
         <v>218</v>
       </c>
       <c r="E58" s="37"/>
@@ -4768,12 +4760,12 @@
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
-      <c r="O58" s="86"/>
-      <c r="P58" s="86"/>
-      <c r="Q58" s="86"/>
-      <c r="R58" s="86"/>
-      <c r="S58" s="86"/>
-      <c r="T58" s="86"/>
+      <c r="O58" s="87"/>
+      <c r="P58" s="87"/>
+      <c r="Q58" s="87"/>
+      <c r="R58" s="87"/>
+      <c r="S58" s="87"/>
+      <c r="T58" s="87"/>
       <c r="U58" s="74"/>
       <c r="V58" s="74"/>
       <c r="W58" s="74"/>
@@ -4797,10 +4789,10 @@
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
-      <c r="O59" s="86"/>
-      <c r="P59" s="86"/>
-      <c r="Q59" s="86"/>
-      <c r="R59" s="86"/>
+      <c r="O59" s="87"/>
+      <c r="P59" s="87"/>
+      <c r="Q59" s="87"/>
+      <c r="R59" s="87"/>
       <c r="S59" s="74"/>
       <c r="T59" s="74"/>
       <c r="U59" s="74"/>
@@ -4812,24 +4804,24 @@
       <c r="AA59" s="75"/>
     </row>
     <row r="60">
-      <c r="A60" s="106"/>
-      <c r="B60" s="106"/>
-      <c r="C60" s="106"/>
-      <c r="D60" s="106"/>
-      <c r="E60" s="106"/>
-      <c r="F60" s="106"/>
-      <c r="G60" s="106"/>
-      <c r="H60" s="106"/>
-      <c r="I60" s="86"/>
-      <c r="J60" s="86"/>
-      <c r="K60" s="86"/>
-      <c r="L60" s="86"/>
-      <c r="M60" s="86"/>
-      <c r="N60" s="86"/>
-      <c r="O60" s="86"/>
-      <c r="P60" s="86"/>
-      <c r="Q60" s="86"/>
-      <c r="R60" s="86"/>
+      <c r="A60" s="107"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="107"/>
+      <c r="D60" s="107"/>
+      <c r="E60" s="107"/>
+      <c r="F60" s="107"/>
+      <c r="G60" s="107"/>
+      <c r="H60" s="107"/>
+      <c r="I60" s="87"/>
+      <c r="J60" s="87"/>
+      <c r="K60" s="87"/>
+      <c r="L60" s="87"/>
+      <c r="M60" s="87"/>
+      <c r="N60" s="87"/>
+      <c r="O60" s="87"/>
+      <c r="P60" s="87"/>
+      <c r="Q60" s="87"/>
+      <c r="R60" s="87"/>
       <c r="S60" s="74"/>
       <c r="T60" s="74"/>
       <c r="U60" s="74"/>
@@ -4841,1553 +4833,244 @@
       <c r="AA60" s="75"/>
     </row>
     <row r="61">
-      <c r="A61" s="86"/>
-      <c r="B61" s="86"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="86"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="86"/>
-      <c r="H61" s="86"/>
-      <c r="I61" s="86"/>
-      <c r="J61" s="86"/>
-      <c r="K61" s="86"/>
-      <c r="L61" s="86"/>
-      <c r="M61" s="86"/>
-      <c r="N61" s="86"/>
-      <c r="O61" s="86"/>
-      <c r="P61" s="86"/>
-      <c r="Q61" s="86"/>
-      <c r="R61" s="86"/>
-      <c r="S61" s="74"/>
-      <c r="T61" s="74"/>
-      <c r="U61" s="74"/>
-      <c r="V61" s="74"/>
-      <c r="W61" s="74"/>
-      <c r="X61" s="75"/>
-      <c r="Y61" s="75"/>
-      <c r="Z61" s="75"/>
-      <c r="AA61" s="75"/>
+      <c r="A61" s="108"/>
+      <c r="B61" s="108"/>
+      <c r="C61" s="108"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="108"/>
+      <c r="G61" s="108"/>
+      <c r="H61" s="108"/>
+      <c r="I61" s="108"/>
+      <c r="J61" s="108"/>
+      <c r="K61" s="108"/>
+      <c r="L61" s="108"/>
+      <c r="M61" s="108"/>
+      <c r="N61" s="108"/>
+      <c r="O61" s="108"/>
+      <c r="P61" s="108"/>
+      <c r="Q61" s="108"/>
+      <c r="R61" s="108"/>
     </row>
     <row r="62">
-      <c r="A62" s="86"/>
-      <c r="B62" s="86"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="86"/>
-      <c r="H62" s="86"/>
-      <c r="I62" s="86"/>
-      <c r="J62" s="86"/>
-      <c r="K62" s="86"/>
-      <c r="L62" s="86"/>
-      <c r="M62" s="86"/>
-      <c r="N62" s="86"/>
-      <c r="O62" s="86"/>
-      <c r="P62" s="86"/>
-      <c r="Q62" s="86"/>
-      <c r="R62" s="86"/>
-      <c r="S62" s="74"/>
-      <c r="T62" s="74"/>
-      <c r="U62" s="74"/>
-      <c r="V62" s="74"/>
-      <c r="W62" s="74"/>
-      <c r="X62" s="75"/>
-      <c r="Y62" s="75"/>
-      <c r="Z62" s="75"/>
-      <c r="AA62" s="75"/>
+      <c r="A62" s="108"/>
+      <c r="B62" s="108"/>
+      <c r="C62" s="108"/>
+      <c r="D62" s="108"/>
+      <c r="E62" s="108"/>
+      <c r="F62" s="108"/>
+      <c r="G62" s="108"/>
+      <c r="H62" s="108"/>
+      <c r="I62" s="108"/>
+      <c r="J62" s="108"/>
+      <c r="K62" s="108"/>
+      <c r="L62" s="108"/>
+      <c r="M62" s="108"/>
+      <c r="N62" s="108"/>
+      <c r="O62" s="108"/>
+      <c r="P62" s="108"/>
+      <c r="Q62" s="108"/>
+      <c r="R62" s="108"/>
     </row>
     <row r="63">
-      <c r="A63" s="107"/>
-      <c r="B63" s="107"/>
-      <c r="C63" s="107"/>
-      <c r="D63" s="107"/>
-      <c r="E63" s="107"/>
-      <c r="F63" s="107"/>
-      <c r="G63" s="107"/>
-      <c r="H63" s="107"/>
-      <c r="I63" s="107"/>
-      <c r="J63" s="107"/>
-      <c r="K63" s="107"/>
-      <c r="L63" s="107"/>
-      <c r="M63" s="107"/>
-      <c r="N63" s="107"/>
-      <c r="O63" s="107"/>
-      <c r="P63" s="107"/>
-      <c r="Q63" s="107"/>
-      <c r="R63" s="107"/>
-      <c r="S63" s="108"/>
-      <c r="T63" s="108"/>
-      <c r="U63" s="108"/>
-      <c r="V63" s="108"/>
-      <c r="W63" s="108"/>
-      <c r="X63" s="75"/>
-      <c r="Y63" s="75"/>
-      <c r="Z63" s="75"/>
-      <c r="AA63" s="75"/>
+      <c r="A63" s="108"/>
+      <c r="B63" s="108"/>
+      <c r="C63" s="108"/>
+      <c r="D63" s="108"/>
+      <c r="E63" s="108"/>
+      <c r="F63" s="108"/>
+      <c r="G63" s="108"/>
+      <c r="H63" s="108"/>
+      <c r="I63" s="108"/>
+      <c r="J63" s="108"/>
+      <c r="K63" s="108"/>
+      <c r="L63" s="108"/>
+      <c r="M63" s="108"/>
+      <c r="N63" s="108"/>
+      <c r="O63" s="108"/>
+      <c r="P63" s="108"/>
+      <c r="Q63" s="108"/>
+      <c r="R63" s="108"/>
     </row>
     <row r="64">
-      <c r="A64" s="107"/>
-      <c r="B64" s="107"/>
-      <c r="C64" s="107"/>
-      <c r="D64" s="107"/>
-      <c r="E64" s="107"/>
-      <c r="F64" s="107"/>
-      <c r="G64" s="107"/>
-      <c r="H64" s="107"/>
-      <c r="I64" s="107"/>
-      <c r="J64" s="107"/>
-      <c r="K64" s="107"/>
-      <c r="L64" s="107"/>
-      <c r="M64" s="107"/>
-      <c r="N64" s="107"/>
-      <c r="O64" s="107"/>
-      <c r="P64" s="107"/>
-      <c r="Q64" s="107"/>
-      <c r="R64" s="107"/>
-      <c r="S64" s="108"/>
-      <c r="T64" s="108"/>
-      <c r="U64" s="108"/>
-      <c r="V64" s="108"/>
-      <c r="W64" s="108"/>
-      <c r="X64" s="75"/>
-      <c r="Y64" s="75"/>
-      <c r="Z64" s="75"/>
-      <c r="AA64" s="75"/>
+      <c r="A64" s="108"/>
+      <c r="B64" s="108"/>
+      <c r="C64" s="108"/>
+      <c r="D64" s="108"/>
+      <c r="E64" s="108"/>
+      <c r="F64" s="108"/>
+      <c r="G64" s="108"/>
+      <c r="H64" s="108"/>
+      <c r="I64" s="108"/>
+      <c r="J64" s="108"/>
+      <c r="K64" s="108"/>
+      <c r="L64" s="108"/>
+      <c r="M64" s="108"/>
+      <c r="N64" s="108"/>
+      <c r="O64" s="108"/>
+      <c r="P64" s="108"/>
+      <c r="Q64" s="108"/>
+      <c r="R64" s="108"/>
     </row>
     <row r="65">
-      <c r="A65" s="107"/>
-      <c r="B65" s="107"/>
-      <c r="C65" s="107"/>
-      <c r="D65" s="107"/>
-      <c r="E65" s="107"/>
-      <c r="F65" s="107"/>
-      <c r="G65" s="107"/>
-      <c r="H65" s="107"/>
-      <c r="I65" s="107"/>
-      <c r="J65" s="107"/>
-      <c r="K65" s="107"/>
-      <c r="L65" s="107"/>
-      <c r="M65" s="107"/>
-      <c r="N65" s="107"/>
-      <c r="O65" s="107"/>
-      <c r="P65" s="107"/>
-      <c r="Q65" s="107"/>
-      <c r="R65" s="107"/>
-      <c r="S65" s="108"/>
-      <c r="T65" s="108"/>
-      <c r="U65" s="108"/>
-      <c r="V65" s="108"/>
-      <c r="W65" s="108"/>
-      <c r="X65" s="75"/>
-      <c r="Y65" s="75"/>
-      <c r="Z65" s="75"/>
-      <c r="AA65" s="75"/>
+      <c r="A65" s="108"/>
+      <c r="B65" s="108"/>
+      <c r="C65" s="108"/>
+      <c r="D65" s="108"/>
+      <c r="E65" s="108"/>
+      <c r="F65" s="108"/>
+      <c r="G65" s="108"/>
+      <c r="H65" s="108"/>
+      <c r="I65" s="108"/>
+      <c r="J65" s="108"/>
+      <c r="K65" s="108"/>
+      <c r="L65" s="108"/>
+      <c r="M65" s="108"/>
+      <c r="N65" s="108"/>
+      <c r="O65" s="108"/>
+      <c r="P65" s="108"/>
+      <c r="Q65" s="108"/>
+      <c r="R65" s="108"/>
     </row>
     <row r="66">
-      <c r="A66" s="107"/>
-      <c r="B66" s="107"/>
-      <c r="C66" s="107"/>
-      <c r="D66" s="107"/>
-      <c r="E66" s="107"/>
-      <c r="F66" s="107"/>
-      <c r="G66" s="107"/>
-      <c r="H66" s="107"/>
-      <c r="I66" s="107"/>
-      <c r="J66" s="107"/>
-      <c r="K66" s="107"/>
-      <c r="L66" s="107"/>
-      <c r="M66" s="107"/>
-      <c r="N66" s="107"/>
-      <c r="O66" s="107"/>
-      <c r="P66" s="107"/>
-      <c r="Q66" s="107"/>
-      <c r="R66" s="107"/>
-      <c r="S66" s="108"/>
-      <c r="T66" s="108"/>
-      <c r="U66" s="108"/>
-      <c r="V66" s="108"/>
-      <c r="W66" s="108"/>
-      <c r="X66" s="75"/>
-      <c r="Y66" s="75"/>
-      <c r="Z66" s="75"/>
-      <c r="AA66" s="75"/>
+      <c r="A66" s="108"/>
+      <c r="B66" s="108"/>
+      <c r="C66" s="108"/>
+      <c r="D66" s="108"/>
+      <c r="E66" s="108"/>
+      <c r="F66" s="108"/>
+      <c r="G66" s="108"/>
+      <c r="H66" s="108"/>
+      <c r="I66" s="108"/>
+      <c r="J66" s="108"/>
+      <c r="K66" s="108"/>
+      <c r="L66" s="108"/>
+      <c r="M66" s="108"/>
+      <c r="N66" s="108"/>
+      <c r="O66" s="108"/>
+      <c r="P66" s="108"/>
+      <c r="Q66" s="108"/>
+      <c r="R66" s="108"/>
     </row>
     <row r="67">
-      <c r="A67" s="107"/>
-      <c r="B67" s="107"/>
-      <c r="C67" s="107"/>
-      <c r="D67" s="107"/>
-      <c r="E67" s="107"/>
-      <c r="F67" s="107"/>
-      <c r="G67" s="107"/>
-      <c r="H67" s="107"/>
-      <c r="I67" s="107"/>
-      <c r="J67" s="107"/>
-      <c r="K67" s="107"/>
-      <c r="L67" s="107"/>
-      <c r="M67" s="107"/>
-      <c r="N67" s="107"/>
-      <c r="O67" s="107"/>
-      <c r="P67" s="107"/>
-      <c r="Q67" s="107"/>
-      <c r="R67" s="107"/>
-      <c r="S67" s="108"/>
-      <c r="T67" s="108"/>
-      <c r="U67" s="108"/>
-      <c r="V67" s="108"/>
-      <c r="W67" s="108"/>
-      <c r="X67" s="75"/>
-      <c r="Y67" s="75"/>
-      <c r="Z67" s="75"/>
-      <c r="AA67" s="75"/>
+      <c r="A67" s="108"/>
+      <c r="B67" s="108"/>
+      <c r="C67" s="108"/>
+      <c r="D67" s="108"/>
+      <c r="E67" s="108"/>
+      <c r="F67" s="108"/>
+      <c r="G67" s="108"/>
+      <c r="H67" s="108"/>
+      <c r="I67" s="108"/>
+      <c r="J67" s="108"/>
+      <c r="K67" s="108"/>
+      <c r="L67" s="108"/>
+      <c r="M67" s="108"/>
+      <c r="N67" s="108"/>
+      <c r="O67" s="108"/>
+      <c r="P67" s="108"/>
+      <c r="Q67" s="108"/>
+      <c r="R67" s="108"/>
     </row>
     <row r="68">
-      <c r="A68" s="107"/>
-      <c r="B68" s="107"/>
-      <c r="C68" s="107"/>
-      <c r="D68" s="107"/>
-      <c r="E68" s="107"/>
-      <c r="F68" s="107"/>
-      <c r="G68" s="107"/>
-      <c r="H68" s="107"/>
-      <c r="I68" s="107"/>
-      <c r="J68" s="107"/>
-      <c r="K68" s="107"/>
-      <c r="L68" s="107"/>
-      <c r="M68" s="107"/>
-      <c r="N68" s="107"/>
-      <c r="O68" s="107"/>
-      <c r="P68" s="107"/>
-      <c r="Q68" s="107"/>
-      <c r="R68" s="107"/>
-      <c r="S68" s="108"/>
-      <c r="T68" s="108"/>
-      <c r="U68" s="108"/>
-      <c r="V68" s="108"/>
-      <c r="W68" s="108"/>
-      <c r="X68" s="75"/>
-      <c r="Y68" s="75"/>
-      <c r="Z68" s="75"/>
-      <c r="AA68" s="75"/>
+      <c r="A68" s="108"/>
+      <c r="B68" s="108"/>
+      <c r="C68" s="108"/>
+      <c r="D68" s="108"/>
+      <c r="E68" s="108"/>
+      <c r="F68" s="108"/>
+      <c r="G68" s="108"/>
+      <c r="H68" s="108"/>
+      <c r="I68" s="108"/>
+      <c r="J68" s="108"/>
+      <c r="K68" s="108"/>
+      <c r="L68" s="108"/>
+      <c r="M68" s="108"/>
+      <c r="N68" s="108"/>
+      <c r="O68" s="108"/>
+      <c r="P68" s="108"/>
+      <c r="Q68" s="108"/>
+      <c r="R68" s="108"/>
     </row>
     <row r="69">
-      <c r="A69" s="107"/>
-      <c r="B69" s="107"/>
-      <c r="C69" s="107"/>
-      <c r="D69" s="107"/>
-      <c r="E69" s="107"/>
-      <c r="F69" s="107"/>
-      <c r="G69" s="107"/>
-      <c r="H69" s="107"/>
-      <c r="I69" s="107"/>
-      <c r="J69" s="107"/>
-      <c r="K69" s="107"/>
-      <c r="L69" s="107"/>
-      <c r="M69" s="107"/>
-      <c r="N69" s="107"/>
-      <c r="O69" s="107"/>
-      <c r="P69" s="107"/>
-      <c r="Q69" s="107"/>
-      <c r="R69" s="107"/>
-      <c r="S69" s="108"/>
-      <c r="T69" s="108"/>
-      <c r="U69" s="108"/>
-      <c r="V69" s="108"/>
-      <c r="W69" s="108"/>
-      <c r="X69" s="75"/>
-      <c r="Y69" s="75"/>
-      <c r="Z69" s="75"/>
-      <c r="AA69" s="75"/>
+      <c r="A69" s="108"/>
+      <c r="B69" s="108"/>
+      <c r="C69" s="108"/>
+      <c r="D69" s="108"/>
+      <c r="E69" s="108"/>
+      <c r="F69" s="108"/>
+      <c r="G69" s="108"/>
+      <c r="H69" s="108"/>
+      <c r="I69" s="108"/>
+      <c r="J69" s="108"/>
+      <c r="K69" s="108"/>
+      <c r="L69" s="108"/>
+      <c r="M69" s="108"/>
+      <c r="N69" s="108"/>
+      <c r="O69" s="108"/>
+      <c r="P69" s="108"/>
+      <c r="Q69" s="108"/>
+      <c r="R69" s="108"/>
     </row>
     <row r="70">
-      <c r="A70" s="107"/>
-      <c r="B70" s="107"/>
-      <c r="C70" s="107"/>
-      <c r="D70" s="107"/>
-      <c r="E70" s="107"/>
-      <c r="F70" s="107"/>
-      <c r="G70" s="107"/>
-      <c r="H70" s="107"/>
-      <c r="I70" s="107"/>
-      <c r="J70" s="107"/>
-      <c r="K70" s="107"/>
-      <c r="L70" s="107"/>
-      <c r="M70" s="107"/>
-      <c r="N70" s="107"/>
-      <c r="O70" s="107"/>
-      <c r="P70" s="107"/>
-      <c r="Q70" s="107"/>
-      <c r="R70" s="107"/>
-      <c r="S70" s="108"/>
-      <c r="T70" s="108"/>
-      <c r="U70" s="108"/>
-      <c r="V70" s="108"/>
-      <c r="W70" s="108"/>
-      <c r="X70" s="75"/>
-      <c r="Y70" s="75"/>
-      <c r="Z70" s="75"/>
-      <c r="AA70" s="75"/>
+      <c r="A70" s="108"/>
+      <c r="B70" s="108"/>
+      <c r="C70" s="108"/>
+      <c r="D70" s="108"/>
+      <c r="E70" s="108"/>
+      <c r="F70" s="108"/>
+      <c r="G70" s="108"/>
+      <c r="H70" s="108"/>
+      <c r="I70" s="108"/>
+      <c r="J70" s="108"/>
+      <c r="K70" s="108"/>
+      <c r="L70" s="108"/>
+      <c r="M70" s="108"/>
+      <c r="N70" s="108"/>
+      <c r="O70" s="108"/>
+      <c r="P70" s="108"/>
+      <c r="Q70" s="108"/>
+      <c r="R70" s="108"/>
     </row>
     <row r="71">
-      <c r="A71" s="107"/>
-      <c r="B71" s="107"/>
-      <c r="C71" s="107"/>
-      <c r="D71" s="107"/>
-      <c r="E71" s="107"/>
-      <c r="F71" s="107"/>
-      <c r="G71" s="107"/>
-      <c r="H71" s="107"/>
-      <c r="I71" s="107"/>
-      <c r="J71" s="107"/>
-      <c r="K71" s="107"/>
-      <c r="L71" s="107"/>
-      <c r="M71" s="107"/>
-      <c r="N71" s="107"/>
-      <c r="O71" s="107"/>
-      <c r="P71" s="107"/>
-      <c r="Q71" s="107"/>
-      <c r="R71" s="107"/>
-      <c r="S71" s="108"/>
-      <c r="T71" s="108"/>
-      <c r="U71" s="108"/>
-      <c r="V71" s="108"/>
-      <c r="W71" s="108"/>
-      <c r="X71" s="75"/>
-      <c r="Y71" s="75"/>
-      <c r="Z71" s="75"/>
-      <c r="AA71" s="75"/>
+      <c r="A71" s="108"/>
+      <c r="B71" s="108"/>
+      <c r="C71" s="108"/>
+      <c r="D71" s="108"/>
+      <c r="E71" s="108"/>
+      <c r="F71" s="108"/>
+      <c r="G71" s="108"/>
+      <c r="H71" s="108"/>
+      <c r="I71" s="108"/>
+      <c r="J71" s="108"/>
+      <c r="K71" s="108"/>
+      <c r="L71" s="108"/>
+      <c r="M71" s="108"/>
+      <c r="N71" s="108"/>
+      <c r="O71" s="108"/>
+      <c r="P71" s="108"/>
+      <c r="Q71" s="108"/>
+      <c r="R71" s="108"/>
     </row>
     <row r="72">
-      <c r="A72" s="107"/>
-      <c r="B72" s="107"/>
-      <c r="C72" s="107"/>
-      <c r="D72" s="107"/>
-      <c r="E72" s="107"/>
-      <c r="F72" s="107"/>
-      <c r="G72" s="107"/>
-      <c r="H72" s="107"/>
-      <c r="I72" s="107"/>
-      <c r="J72" s="107"/>
-      <c r="K72" s="107"/>
-      <c r="L72" s="107"/>
-      <c r="M72" s="107"/>
-      <c r="N72" s="107"/>
-      <c r="O72" s="107"/>
-      <c r="P72" s="107"/>
-      <c r="Q72" s="107"/>
-      <c r="R72" s="107"/>
-      <c r="S72" s="108"/>
-      <c r="T72" s="108"/>
-      <c r="U72" s="108"/>
-      <c r="V72" s="108"/>
-      <c r="W72" s="108"/>
-      <c r="X72" s="75"/>
-      <c r="Y72" s="75"/>
-      <c r="Z72" s="75"/>
-      <c r="AA72" s="75"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="107"/>
-      <c r="B73" s="107"/>
-      <c r="C73" s="107"/>
-      <c r="D73" s="107"/>
-      <c r="E73" s="107"/>
-      <c r="F73" s="107"/>
-      <c r="G73" s="107"/>
-      <c r="H73" s="107"/>
-      <c r="I73" s="107"/>
-      <c r="J73" s="107"/>
-      <c r="K73" s="107"/>
-      <c r="L73" s="107"/>
-      <c r="M73" s="107"/>
-      <c r="N73" s="107"/>
-      <c r="O73" s="107"/>
-      <c r="P73" s="107"/>
-      <c r="Q73" s="107"/>
-      <c r="R73" s="107"/>
-      <c r="S73" s="108"/>
-      <c r="T73" s="108"/>
-      <c r="U73" s="108"/>
-      <c r="V73" s="108"/>
-      <c r="W73" s="108"/>
-      <c r="X73" s="75"/>
-      <c r="Y73" s="75"/>
-      <c r="Z73" s="75"/>
-      <c r="AA73" s="75"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="107"/>
-      <c r="B74" s="107"/>
-      <c r="C74" s="107"/>
-      <c r="D74" s="107"/>
-      <c r="E74" s="107"/>
-      <c r="F74" s="107"/>
-      <c r="G74" s="107"/>
-      <c r="H74" s="107"/>
-      <c r="I74" s="107"/>
-      <c r="J74" s="107"/>
-      <c r="K74" s="107"/>
-      <c r="L74" s="107"/>
-      <c r="M74" s="107"/>
-      <c r="N74" s="107"/>
-      <c r="O74" s="107"/>
-      <c r="P74" s="107"/>
-      <c r="Q74" s="107"/>
-      <c r="R74" s="107"/>
-      <c r="S74" s="108"/>
-      <c r="T74" s="108"/>
-      <c r="U74" s="108"/>
-      <c r="V74" s="108"/>
-      <c r="W74" s="108"/>
-      <c r="X74" s="75"/>
-      <c r="Y74" s="75"/>
-      <c r="Z74" s="75"/>
-      <c r="AA74" s="75"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="107"/>
-      <c r="B75" s="107"/>
-      <c r="C75" s="107"/>
-      <c r="D75" s="107"/>
-      <c r="E75" s="107"/>
-      <c r="F75" s="107"/>
-      <c r="G75" s="107"/>
-      <c r="H75" s="107"/>
-      <c r="I75" s="107"/>
-      <c r="J75" s="107"/>
-      <c r="K75" s="107"/>
-      <c r="L75" s="107"/>
-      <c r="M75" s="107"/>
-      <c r="N75" s="107"/>
-      <c r="O75" s="107"/>
-      <c r="P75" s="107"/>
-      <c r="Q75" s="107"/>
-      <c r="R75" s="107"/>
-      <c r="S75" s="108"/>
-      <c r="T75" s="108"/>
-      <c r="U75" s="108"/>
-      <c r="V75" s="108"/>
-      <c r="W75" s="108"/>
-      <c r="X75" s="75"/>
-      <c r="Y75" s="75"/>
-      <c r="Z75" s="75"/>
-      <c r="AA75" s="75"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="107"/>
-      <c r="B76" s="107"/>
-      <c r="C76" s="107"/>
-      <c r="D76" s="107"/>
-      <c r="E76" s="107"/>
-      <c r="F76" s="107"/>
-      <c r="G76" s="107"/>
-      <c r="H76" s="107"/>
-      <c r="I76" s="107"/>
-      <c r="J76" s="107"/>
-      <c r="K76" s="107"/>
-      <c r="L76" s="107"/>
-      <c r="M76" s="107"/>
-      <c r="N76" s="107"/>
-      <c r="O76" s="107"/>
-      <c r="P76" s="107"/>
-      <c r="Q76" s="107"/>
-      <c r="R76" s="107"/>
-      <c r="S76" s="108"/>
-      <c r="T76" s="108"/>
-      <c r="U76" s="108"/>
-      <c r="V76" s="108"/>
-      <c r="W76" s="108"/>
-      <c r="X76" s="75"/>
-      <c r="Y76" s="75"/>
-      <c r="Z76" s="75"/>
-      <c r="AA76" s="75"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="107"/>
-      <c r="B77" s="107"/>
-      <c r="C77" s="107"/>
-      <c r="D77" s="107"/>
-      <c r="E77" s="107"/>
-      <c r="F77" s="107"/>
-      <c r="G77" s="107"/>
-      <c r="H77" s="107"/>
-      <c r="I77" s="107"/>
-      <c r="J77" s="107"/>
-      <c r="K77" s="107"/>
-      <c r="L77" s="107"/>
-      <c r="M77" s="107"/>
-      <c r="N77" s="107"/>
-      <c r="O77" s="107"/>
-      <c r="P77" s="107"/>
-      <c r="Q77" s="107"/>
-      <c r="R77" s="107"/>
-      <c r="S77" s="108"/>
-      <c r="T77" s="108"/>
-      <c r="U77" s="108"/>
-      <c r="V77" s="108"/>
-      <c r="W77" s="108"/>
-      <c r="X77" s="75"/>
-      <c r="Y77" s="75"/>
-      <c r="Z77" s="75"/>
-      <c r="AA77" s="75"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="107"/>
-      <c r="B78" s="107"/>
-      <c r="C78" s="107"/>
-      <c r="D78" s="107"/>
-      <c r="E78" s="107"/>
-      <c r="F78" s="107"/>
-      <c r="G78" s="107"/>
-      <c r="H78" s="107"/>
-      <c r="I78" s="107"/>
-      <c r="J78" s="107"/>
-      <c r="K78" s="107"/>
-      <c r="L78" s="107"/>
-      <c r="M78" s="107"/>
-      <c r="N78" s="107"/>
-      <c r="O78" s="107"/>
-      <c r="P78" s="107"/>
-      <c r="Q78" s="107"/>
-      <c r="R78" s="107"/>
-      <c r="S78" s="108"/>
-      <c r="T78" s="108"/>
-      <c r="U78" s="108"/>
-      <c r="V78" s="108"/>
-      <c r="W78" s="108"/>
-      <c r="X78" s="75"/>
-      <c r="Y78" s="75"/>
-      <c r="Z78" s="75"/>
-      <c r="AA78" s="75"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="107"/>
-      <c r="B79" s="107"/>
-      <c r="C79" s="107"/>
-      <c r="D79" s="107"/>
-      <c r="E79" s="107"/>
-      <c r="F79" s="107"/>
-      <c r="G79" s="107"/>
-      <c r="H79" s="107"/>
-      <c r="I79" s="107"/>
-      <c r="J79" s="107"/>
-      <c r="K79" s="107"/>
-      <c r="L79" s="107"/>
-      <c r="M79" s="107"/>
-      <c r="N79" s="107"/>
-      <c r="O79" s="107"/>
-      <c r="P79" s="107"/>
-      <c r="Q79" s="107"/>
-      <c r="R79" s="107"/>
-      <c r="S79" s="108"/>
-      <c r="T79" s="108"/>
-      <c r="U79" s="108"/>
-      <c r="V79" s="108"/>
-      <c r="W79" s="108"/>
-      <c r="X79" s="75"/>
-      <c r="Y79" s="75"/>
-      <c r="Z79" s="75"/>
-      <c r="AA79" s="75"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="107"/>
-      <c r="B80" s="107"/>
-      <c r="C80" s="107"/>
-      <c r="D80" s="107"/>
-      <c r="E80" s="107"/>
-      <c r="F80" s="107"/>
-      <c r="G80" s="107"/>
-      <c r="H80" s="107"/>
-      <c r="I80" s="107"/>
-      <c r="J80" s="107"/>
-      <c r="K80" s="107"/>
-      <c r="L80" s="107"/>
-      <c r="M80" s="107"/>
-      <c r="N80" s="107"/>
-      <c r="O80" s="107"/>
-      <c r="P80" s="107"/>
-      <c r="Q80" s="107"/>
-      <c r="R80" s="107"/>
-      <c r="S80" s="108"/>
-      <c r="T80" s="108"/>
-      <c r="U80" s="108"/>
-      <c r="V80" s="108"/>
-      <c r="W80" s="108"/>
-      <c r="X80" s="75"/>
-      <c r="Y80" s="75"/>
-      <c r="Z80" s="75"/>
-      <c r="AA80" s="75"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="107"/>
-      <c r="B81" s="107"/>
-      <c r="C81" s="107"/>
-      <c r="D81" s="107"/>
-      <c r="E81" s="107"/>
-      <c r="F81" s="107"/>
-      <c r="G81" s="107"/>
-      <c r="H81" s="107"/>
-      <c r="I81" s="107"/>
-      <c r="J81" s="107"/>
-      <c r="K81" s="107"/>
-      <c r="L81" s="107"/>
-      <c r="M81" s="107"/>
-      <c r="N81" s="107"/>
-      <c r="O81" s="107"/>
-      <c r="P81" s="107"/>
-      <c r="Q81" s="107"/>
-      <c r="R81" s="107"/>
-      <c r="S81" s="108"/>
-      <c r="T81" s="108"/>
-      <c r="U81" s="108"/>
-      <c r="V81" s="108"/>
-      <c r="W81" s="108"/>
-      <c r="X81" s="75"/>
-      <c r="Y81" s="75"/>
-      <c r="Z81" s="75"/>
-      <c r="AA81" s="75"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="107"/>
-      <c r="B82" s="107"/>
-      <c r="C82" s="107"/>
-      <c r="D82" s="107"/>
-      <c r="E82" s="107"/>
-      <c r="F82" s="107"/>
-      <c r="G82" s="107"/>
-      <c r="H82" s="107"/>
-      <c r="I82" s="107"/>
-      <c r="J82" s="107"/>
-      <c r="K82" s="107"/>
-      <c r="L82" s="107"/>
-      <c r="M82" s="107"/>
-      <c r="N82" s="107"/>
-      <c r="O82" s="107"/>
-      <c r="P82" s="107"/>
-      <c r="Q82" s="107"/>
-      <c r="R82" s="107"/>
-      <c r="S82" s="108"/>
-      <c r="T82" s="108"/>
-      <c r="U82" s="108"/>
-      <c r="V82" s="108"/>
-      <c r="W82" s="108"/>
-      <c r="X82" s="75"/>
-      <c r="Y82" s="75"/>
-      <c r="Z82" s="75"/>
-      <c r="AA82" s="75"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="107"/>
-      <c r="B83" s="107"/>
-      <c r="C83" s="107"/>
-      <c r="D83" s="107"/>
-      <c r="E83" s="107"/>
-      <c r="F83" s="107"/>
-      <c r="G83" s="107"/>
-      <c r="H83" s="107"/>
-      <c r="I83" s="107"/>
-      <c r="J83" s="107"/>
-      <c r="K83" s="107"/>
-      <c r="L83" s="107"/>
-      <c r="M83" s="107"/>
-      <c r="N83" s="107"/>
-      <c r="O83" s="107"/>
-      <c r="P83" s="107"/>
-      <c r="Q83" s="107"/>
-      <c r="R83" s="107"/>
-      <c r="S83" s="108"/>
-      <c r="T83" s="108"/>
-      <c r="U83" s="108"/>
-      <c r="V83" s="108"/>
-      <c r="W83" s="108"/>
-      <c r="X83" s="75"/>
-      <c r="Y83" s="75"/>
-      <c r="Z83" s="75"/>
-      <c r="AA83" s="75"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="107"/>
-      <c r="B84" s="107"/>
-      <c r="C84" s="107"/>
-      <c r="D84" s="107"/>
-      <c r="E84" s="107"/>
-      <c r="F84" s="107"/>
-      <c r="G84" s="107"/>
-      <c r="H84" s="107"/>
-      <c r="I84" s="107"/>
-      <c r="J84" s="107"/>
-      <c r="K84" s="107"/>
-      <c r="L84" s="107"/>
-      <c r="M84" s="107"/>
-      <c r="N84" s="107"/>
-      <c r="O84" s="107"/>
-      <c r="P84" s="107"/>
-      <c r="Q84" s="107"/>
-      <c r="R84" s="107"/>
-      <c r="S84" s="108"/>
-      <c r="T84" s="108"/>
-      <c r="U84" s="108"/>
-      <c r="V84" s="108"/>
-      <c r="W84" s="108"/>
-      <c r="X84" s="75"/>
-      <c r="Y84" s="75"/>
-      <c r="Z84" s="75"/>
-      <c r="AA84" s="75"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="107"/>
-      <c r="B85" s="107"/>
-      <c r="C85" s="107"/>
-      <c r="D85" s="107"/>
-      <c r="E85" s="107"/>
-      <c r="F85" s="107"/>
-      <c r="G85" s="107"/>
-      <c r="H85" s="107"/>
-      <c r="I85" s="107"/>
-      <c r="J85" s="107"/>
-      <c r="K85" s="107"/>
-      <c r="L85" s="107"/>
-      <c r="M85" s="107"/>
-      <c r="N85" s="107"/>
-      <c r="O85" s="107"/>
-      <c r="P85" s="107"/>
-      <c r="Q85" s="107"/>
-      <c r="R85" s="107"/>
-      <c r="S85" s="108"/>
-      <c r="T85" s="108"/>
-      <c r="U85" s="108"/>
-      <c r="V85" s="108"/>
-      <c r="W85" s="108"/>
-      <c r="X85" s="75"/>
-      <c r="Y85" s="75"/>
-      <c r="Z85" s="75"/>
-      <c r="AA85" s="75"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="107"/>
-      <c r="B86" s="107"/>
-      <c r="C86" s="107"/>
-      <c r="D86" s="107"/>
-      <c r="E86" s="107"/>
-      <c r="F86" s="107"/>
-      <c r="G86" s="107"/>
-      <c r="H86" s="107"/>
-      <c r="I86" s="107"/>
-      <c r="J86" s="107"/>
-      <c r="K86" s="107"/>
-      <c r="L86" s="107"/>
-      <c r="M86" s="107"/>
-      <c r="N86" s="107"/>
-      <c r="O86" s="107"/>
-      <c r="P86" s="107"/>
-      <c r="Q86" s="107"/>
-      <c r="R86" s="107"/>
-      <c r="S86" s="108"/>
-      <c r="T86" s="108"/>
-      <c r="U86" s="108"/>
-      <c r="V86" s="108"/>
-      <c r="W86" s="108"/>
-      <c r="X86" s="75"/>
-      <c r="Y86" s="75"/>
-      <c r="Z86" s="75"/>
-      <c r="AA86" s="75"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="109"/>
-      <c r="B87" s="109"/>
-      <c r="C87" s="109"/>
-      <c r="D87" s="109"/>
-      <c r="E87" s="109"/>
-      <c r="F87" s="109"/>
-      <c r="G87" s="109"/>
-      <c r="H87" s="109"/>
-      <c r="I87" s="109"/>
-      <c r="J87" s="109"/>
-      <c r="K87" s="109"/>
-      <c r="L87" s="109"/>
-      <c r="M87" s="109"/>
-      <c r="N87" s="109"/>
-      <c r="O87" s="109"/>
-      <c r="P87" s="109"/>
-      <c r="Q87" s="109"/>
-      <c r="R87" s="109"/>
-      <c r="S87" s="110"/>
-      <c r="T87" s="110"/>
-      <c r="U87" s="110"/>
-      <c r="V87" s="110"/>
-      <c r="W87" s="110"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="109"/>
-      <c r="B88" s="109"/>
-      <c r="C88" s="109"/>
-      <c r="D88" s="109"/>
-      <c r="E88" s="109"/>
-      <c r="F88" s="109"/>
-      <c r="G88" s="109"/>
-      <c r="H88" s="109"/>
-      <c r="I88" s="109"/>
-      <c r="J88" s="109"/>
-      <c r="K88" s="109"/>
-      <c r="L88" s="109"/>
-      <c r="M88" s="109"/>
-      <c r="N88" s="109"/>
-      <c r="O88" s="109"/>
-      <c r="P88" s="109"/>
-      <c r="Q88" s="109"/>
-      <c r="R88" s="109"/>
-      <c r="S88" s="110"/>
-      <c r="T88" s="110"/>
-      <c r="U88" s="110"/>
-      <c r="V88" s="110"/>
-      <c r="W88" s="110"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="109"/>
-      <c r="B89" s="109"/>
-      <c r="C89" s="109"/>
-      <c r="D89" s="109"/>
-      <c r="E89" s="109"/>
-      <c r="F89" s="109"/>
-      <c r="G89" s="109"/>
-      <c r="H89" s="109"/>
-      <c r="I89" s="109"/>
-      <c r="J89" s="109"/>
-      <c r="K89" s="109"/>
-      <c r="L89" s="109"/>
-      <c r="M89" s="109"/>
-      <c r="N89" s="109"/>
-      <c r="O89" s="109"/>
-      <c r="P89" s="109"/>
-      <c r="Q89" s="109"/>
-      <c r="R89" s="109"/>
-      <c r="S89" s="110"/>
-      <c r="T89" s="110"/>
-      <c r="U89" s="110"/>
-      <c r="V89" s="110"/>
-      <c r="W89" s="110"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="109"/>
-      <c r="B90" s="109"/>
-      <c r="C90" s="109"/>
-      <c r="D90" s="109"/>
-      <c r="E90" s="109"/>
-      <c r="F90" s="109"/>
-      <c r="G90" s="109"/>
-      <c r="H90" s="109"/>
-      <c r="I90" s="109"/>
-      <c r="J90" s="109"/>
-      <c r="K90" s="109"/>
-      <c r="L90" s="109"/>
-      <c r="M90" s="109"/>
-      <c r="N90" s="109"/>
-      <c r="O90" s="109"/>
-      <c r="P90" s="109"/>
-      <c r="Q90" s="109"/>
-      <c r="R90" s="109"/>
-      <c r="S90" s="110"/>
-      <c r="T90" s="110"/>
-      <c r="U90" s="110"/>
-      <c r="V90" s="110"/>
-      <c r="W90" s="110"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="109"/>
-      <c r="B91" s="109"/>
-      <c r="C91" s="109"/>
-      <c r="D91" s="109"/>
-      <c r="E91" s="109"/>
-      <c r="F91" s="109"/>
-      <c r="G91" s="109"/>
-      <c r="H91" s="109"/>
-      <c r="I91" s="109"/>
-      <c r="J91" s="109"/>
-      <c r="K91" s="109"/>
-      <c r="L91" s="109"/>
-      <c r="M91" s="109"/>
-      <c r="N91" s="109"/>
-      <c r="O91" s="109"/>
-      <c r="P91" s="109"/>
-      <c r="Q91" s="109"/>
-      <c r="R91" s="109"/>
-      <c r="S91" s="110"/>
-      <c r="T91" s="110"/>
-      <c r="U91" s="110"/>
-      <c r="V91" s="110"/>
-      <c r="W91" s="110"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="109"/>
-      <c r="B92" s="109"/>
-      <c r="C92" s="109"/>
-      <c r="D92" s="109"/>
-      <c r="E92" s="109"/>
-      <c r="F92" s="109"/>
-      <c r="G92" s="109"/>
-      <c r="H92" s="109"/>
-      <c r="I92" s="109"/>
-      <c r="J92" s="109"/>
-      <c r="K92" s="109"/>
-      <c r="L92" s="109"/>
-      <c r="M92" s="109"/>
-      <c r="N92" s="109"/>
-      <c r="O92" s="109"/>
-      <c r="P92" s="109"/>
-      <c r="Q92" s="109"/>
-      <c r="R92" s="109"/>
-      <c r="S92" s="110"/>
-      <c r="T92" s="110"/>
-      <c r="U92" s="110"/>
-      <c r="V92" s="110"/>
-      <c r="W92" s="110"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="109"/>
-      <c r="B93" s="109"/>
-      <c r="C93" s="109"/>
-      <c r="D93" s="109"/>
-      <c r="E93" s="109"/>
-      <c r="F93" s="109"/>
-      <c r="G93" s="109"/>
-      <c r="H93" s="109"/>
-      <c r="I93" s="109"/>
-      <c r="J93" s="109"/>
-      <c r="K93" s="109"/>
-      <c r="L93" s="109"/>
-      <c r="M93" s="109"/>
-      <c r="N93" s="109"/>
-      <c r="O93" s="109"/>
-      <c r="P93" s="109"/>
-      <c r="Q93" s="109"/>
-      <c r="R93" s="109"/>
-      <c r="S93" s="110"/>
-      <c r="T93" s="110"/>
-      <c r="U93" s="110"/>
-      <c r="V93" s="110"/>
-      <c r="W93" s="110"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="111"/>
-      <c r="B94" s="111"/>
-      <c r="C94" s="111"/>
-      <c r="D94" s="111"/>
-      <c r="E94" s="111"/>
-      <c r="F94" s="111"/>
-      <c r="G94" s="111"/>
-      <c r="H94" s="111"/>
-      <c r="I94" s="111"/>
-      <c r="J94" s="111"/>
-      <c r="K94" s="111"/>
-      <c r="L94" s="111"/>
-      <c r="M94" s="111"/>
-      <c r="N94" s="111"/>
-      <c r="O94" s="111"/>
-      <c r="P94" s="111"/>
-      <c r="Q94" s="111"/>
-      <c r="R94" s="111"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="111"/>
-      <c r="B95" s="111"/>
-      <c r="C95" s="111"/>
-      <c r="D95" s="111"/>
-      <c r="E95" s="111"/>
-      <c r="F95" s="111"/>
-      <c r="G95" s="111"/>
-      <c r="H95" s="111"/>
-      <c r="I95" s="111"/>
-      <c r="J95" s="111"/>
-      <c r="K95" s="111"/>
-      <c r="L95" s="111"/>
-      <c r="M95" s="111"/>
-      <c r="N95" s="111"/>
-      <c r="O95" s="111"/>
-      <c r="P95" s="111"/>
-      <c r="Q95" s="111"/>
-      <c r="R95" s="111"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="111"/>
-      <c r="B96" s="111"/>
-      <c r="C96" s="111"/>
-      <c r="D96" s="111"/>
-      <c r="E96" s="111"/>
-      <c r="F96" s="111"/>
-      <c r="G96" s="111"/>
-      <c r="H96" s="111"/>
-      <c r="I96" s="111"/>
-      <c r="J96" s="111"/>
-      <c r="K96" s="111"/>
-      <c r="L96" s="111"/>
-      <c r="M96" s="111"/>
-      <c r="N96" s="111"/>
-      <c r="O96" s="111"/>
-      <c r="P96" s="111"/>
-      <c r="Q96" s="111"/>
-      <c r="R96" s="111"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="111"/>
-      <c r="B97" s="111"/>
-      <c r="C97" s="111"/>
-      <c r="D97" s="111"/>
-      <c r="E97" s="111"/>
-      <c r="F97" s="111"/>
-      <c r="G97" s="111"/>
-      <c r="H97" s="111"/>
-      <c r="I97" s="111"/>
-      <c r="J97" s="111"/>
-      <c r="K97" s="111"/>
-      <c r="L97" s="111"/>
-      <c r="M97" s="111"/>
-      <c r="N97" s="111"/>
-      <c r="O97" s="111"/>
-      <c r="P97" s="111"/>
-      <c r="Q97" s="111"/>
-      <c r="R97" s="111"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="111"/>
-      <c r="B98" s="111"/>
-      <c r="C98" s="111"/>
-      <c r="D98" s="111"/>
-      <c r="E98" s="111"/>
-      <c r="F98" s="111"/>
-      <c r="G98" s="111"/>
-      <c r="H98" s="111"/>
-      <c r="I98" s="111"/>
-      <c r="J98" s="111"/>
-      <c r="K98" s="111"/>
-      <c r="L98" s="111"/>
-      <c r="M98" s="111"/>
-      <c r="N98" s="111"/>
-      <c r="O98" s="111"/>
-      <c r="P98" s="111"/>
-      <c r="Q98" s="111"/>
-      <c r="R98" s="111"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="111"/>
-      <c r="B99" s="111"/>
-      <c r="C99" s="111"/>
-      <c r="D99" s="111"/>
-      <c r="E99" s="111"/>
-      <c r="F99" s="111"/>
-      <c r="G99" s="111"/>
-      <c r="H99" s="111"/>
-      <c r="I99" s="111"/>
-      <c r="J99" s="111"/>
-      <c r="K99" s="111"/>
-      <c r="L99" s="111"/>
-      <c r="M99" s="111"/>
-      <c r="N99" s="111"/>
-      <c r="O99" s="111"/>
-      <c r="P99" s="111"/>
-      <c r="Q99" s="111"/>
-      <c r="R99" s="111"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="111"/>
-      <c r="B100" s="111"/>
-      <c r="C100" s="111"/>
-      <c r="D100" s="111"/>
-      <c r="E100" s="111"/>
-      <c r="F100" s="111"/>
-      <c r="G100" s="111"/>
-      <c r="H100" s="111"/>
-      <c r="I100" s="111"/>
-      <c r="J100" s="111"/>
-      <c r="K100" s="111"/>
-      <c r="L100" s="111"/>
-      <c r="M100" s="111"/>
-      <c r="N100" s="111"/>
-      <c r="O100" s="111"/>
-      <c r="P100" s="111"/>
-      <c r="Q100" s="111"/>
-      <c r="R100" s="111"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="111"/>
-      <c r="B101" s="111"/>
-      <c r="C101" s="111"/>
-      <c r="D101" s="111"/>
-      <c r="E101" s="111"/>
-      <c r="F101" s="111"/>
-      <c r="G101" s="111"/>
-      <c r="H101" s="111"/>
-      <c r="I101" s="111"/>
-      <c r="J101" s="111"/>
-      <c r="K101" s="111"/>
-      <c r="L101" s="111"/>
-      <c r="M101" s="111"/>
-      <c r="N101" s="111"/>
-      <c r="O101" s="111"/>
-      <c r="P101" s="111"/>
-      <c r="Q101" s="111"/>
-      <c r="R101" s="111"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="111"/>
-      <c r="B102" s="111"/>
-      <c r="C102" s="111"/>
-      <c r="D102" s="111"/>
-      <c r="E102" s="111"/>
-      <c r="F102" s="111"/>
-      <c r="G102" s="111"/>
-      <c r="H102" s="111"/>
-      <c r="I102" s="111"/>
-      <c r="J102" s="111"/>
-      <c r="K102" s="111"/>
-      <c r="L102" s="111"/>
-      <c r="M102" s="111"/>
-      <c r="N102" s="111"/>
-      <c r="O102" s="111"/>
-      <c r="P102" s="111"/>
-      <c r="Q102" s="111"/>
-      <c r="R102" s="111"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="111"/>
-      <c r="B103" s="111"/>
-      <c r="C103" s="111"/>
-      <c r="D103" s="111"/>
-      <c r="E103" s="111"/>
-      <c r="F103" s="111"/>
-      <c r="G103" s="111"/>
-      <c r="H103" s="111"/>
-      <c r="I103" s="111"/>
-      <c r="J103" s="111"/>
-      <c r="K103" s="111"/>
-      <c r="L103" s="111"/>
-      <c r="M103" s="111"/>
-      <c r="N103" s="111"/>
-      <c r="O103" s="111"/>
-      <c r="P103" s="111"/>
-      <c r="Q103" s="111"/>
-      <c r="R103" s="111"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="111"/>
-      <c r="B104" s="111"/>
-      <c r="C104" s="111"/>
-      <c r="D104" s="111"/>
-      <c r="E104" s="111"/>
-      <c r="F104" s="111"/>
-      <c r="G104" s="111"/>
-      <c r="H104" s="111"/>
-      <c r="I104" s="111"/>
-      <c r="J104" s="111"/>
-      <c r="K104" s="111"/>
-      <c r="L104" s="111"/>
-      <c r="M104" s="111"/>
-      <c r="N104" s="111"/>
-      <c r="O104" s="111"/>
-      <c r="P104" s="111"/>
-      <c r="Q104" s="111"/>
-      <c r="R104" s="111"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="111"/>
-      <c r="B105" s="111"/>
-      <c r="C105" s="111"/>
-      <c r="D105" s="111"/>
-      <c r="E105" s="111"/>
-      <c r="F105" s="111"/>
-      <c r="G105" s="111"/>
-      <c r="H105" s="111"/>
-      <c r="I105" s="111"/>
-      <c r="J105" s="111"/>
-      <c r="K105" s="111"/>
-      <c r="L105" s="111"/>
-      <c r="M105" s="111"/>
-      <c r="N105" s="111"/>
-      <c r="O105" s="111"/>
-      <c r="P105" s="111"/>
-      <c r="Q105" s="111"/>
-      <c r="R105" s="111"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="111"/>
-      <c r="B106" s="111"/>
-      <c r="C106" s="111"/>
-      <c r="D106" s="111"/>
-      <c r="E106" s="111"/>
-      <c r="F106" s="111"/>
-      <c r="G106" s="111"/>
-      <c r="H106" s="111"/>
-      <c r="I106" s="111"/>
-      <c r="J106" s="111"/>
-      <c r="K106" s="111"/>
-      <c r="L106" s="111"/>
-      <c r="M106" s="111"/>
-      <c r="N106" s="111"/>
-      <c r="O106" s="111"/>
-      <c r="P106" s="111"/>
-      <c r="Q106" s="111"/>
-      <c r="R106" s="111"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="111"/>
-      <c r="B107" s="111"/>
-      <c r="C107" s="111"/>
-      <c r="D107" s="111"/>
-      <c r="E107" s="111"/>
-      <c r="F107" s="111"/>
-      <c r="G107" s="111"/>
-      <c r="H107" s="111"/>
-      <c r="I107" s="111"/>
-      <c r="J107" s="111"/>
-      <c r="K107" s="111"/>
-      <c r="L107" s="111"/>
-      <c r="M107" s="111"/>
-      <c r="N107" s="111"/>
-      <c r="O107" s="111"/>
-      <c r="P107" s="111"/>
-      <c r="Q107" s="111"/>
-      <c r="R107" s="111"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="111"/>
-      <c r="B108" s="111"/>
-      <c r="C108" s="111"/>
-      <c r="D108" s="111"/>
-      <c r="E108" s="111"/>
-      <c r="F108" s="111"/>
-      <c r="G108" s="111"/>
-      <c r="H108" s="111"/>
-      <c r="I108" s="111"/>
-      <c r="J108" s="111"/>
-      <c r="K108" s="111"/>
-      <c r="L108" s="111"/>
-      <c r="M108" s="111"/>
-      <c r="N108" s="111"/>
-      <c r="O108" s="111"/>
-      <c r="P108" s="111"/>
-      <c r="Q108" s="111"/>
-      <c r="R108" s="111"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="111"/>
-      <c r="B109" s="111"/>
-      <c r="C109" s="111"/>
-      <c r="D109" s="111"/>
-      <c r="E109" s="111"/>
-      <c r="F109" s="111"/>
-      <c r="G109" s="111"/>
-      <c r="H109" s="111"/>
-      <c r="I109" s="111"/>
-      <c r="J109" s="111"/>
-      <c r="K109" s="111"/>
-      <c r="L109" s="111"/>
-      <c r="M109" s="111"/>
-      <c r="N109" s="111"/>
-      <c r="O109" s="111"/>
-      <c r="P109" s="111"/>
-      <c r="Q109" s="111"/>
-      <c r="R109" s="111"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="111"/>
-      <c r="B110" s="111"/>
-      <c r="C110" s="111"/>
-      <c r="D110" s="111"/>
-      <c r="E110" s="111"/>
-      <c r="F110" s="111"/>
-      <c r="G110" s="111"/>
-      <c r="H110" s="111"/>
-      <c r="I110" s="111"/>
-      <c r="J110" s="111"/>
-      <c r="K110" s="111"/>
-      <c r="L110" s="111"/>
-      <c r="M110" s="111"/>
-      <c r="N110" s="111"/>
-      <c r="O110" s="111"/>
-      <c r="P110" s="111"/>
-      <c r="Q110" s="111"/>
-      <c r="R110" s="111"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="111"/>
-      <c r="B111" s="111"/>
-      <c r="C111" s="111"/>
-      <c r="D111" s="111"/>
-      <c r="E111" s="111"/>
-      <c r="F111" s="111"/>
-      <c r="G111" s="111"/>
-      <c r="H111" s="111"/>
-      <c r="I111" s="111"/>
-      <c r="J111" s="111"/>
-      <c r="K111" s="111"/>
-      <c r="L111" s="111"/>
-      <c r="M111" s="111"/>
-      <c r="N111" s="111"/>
-      <c r="O111" s="111"/>
-      <c r="P111" s="111"/>
-      <c r="Q111" s="111"/>
-      <c r="R111" s="111"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="111"/>
-      <c r="B112" s="111"/>
-      <c r="C112" s="111"/>
-      <c r="D112" s="111"/>
-      <c r="E112" s="111"/>
-      <c r="F112" s="111"/>
-      <c r="G112" s="111"/>
-      <c r="H112" s="111"/>
-      <c r="I112" s="111"/>
-      <c r="J112" s="111"/>
-      <c r="K112" s="111"/>
-      <c r="L112" s="111"/>
-      <c r="M112" s="111"/>
-      <c r="N112" s="111"/>
-      <c r="O112" s="111"/>
-      <c r="P112" s="111"/>
-      <c r="Q112" s="111"/>
-      <c r="R112" s="111"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="111"/>
-      <c r="B113" s="111"/>
-      <c r="C113" s="111"/>
-      <c r="D113" s="111"/>
-      <c r="E113" s="111"/>
-      <c r="F113" s="111"/>
-      <c r="G113" s="111"/>
-      <c r="H113" s="111"/>
-      <c r="I113" s="111"/>
-      <c r="J113" s="111"/>
-      <c r="K113" s="111"/>
-      <c r="L113" s="111"/>
-      <c r="M113" s="111"/>
-      <c r="N113" s="111"/>
-      <c r="O113" s="111"/>
-      <c r="P113" s="111"/>
-      <c r="Q113" s="111"/>
-      <c r="R113" s="111"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="111"/>
-      <c r="B114" s="111"/>
-      <c r="C114" s="111"/>
-      <c r="D114" s="111"/>
-      <c r="E114" s="111"/>
-      <c r="F114" s="111"/>
-      <c r="G114" s="111"/>
-      <c r="H114" s="111"/>
-      <c r="I114" s="111"/>
-      <c r="J114" s="111"/>
-      <c r="K114" s="111"/>
-      <c r="L114" s="111"/>
-      <c r="M114" s="111"/>
-      <c r="N114" s="111"/>
-      <c r="O114" s="111"/>
-      <c r="P114" s="111"/>
-      <c r="Q114" s="111"/>
-      <c r="R114" s="111"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="111"/>
-      <c r="B115" s="111"/>
-      <c r="C115" s="111"/>
-      <c r="D115" s="111"/>
-      <c r="E115" s="111"/>
-      <c r="F115" s="111"/>
-      <c r="G115" s="111"/>
-      <c r="H115" s="111"/>
-      <c r="I115" s="111"/>
-      <c r="J115" s="111"/>
-      <c r="K115" s="111"/>
-      <c r="L115" s="111"/>
-      <c r="M115" s="111"/>
-      <c r="N115" s="111"/>
-      <c r="O115" s="111"/>
-      <c r="P115" s="111"/>
-      <c r="Q115" s="111"/>
-      <c r="R115" s="111"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="111"/>
-      <c r="B116" s="111"/>
-      <c r="C116" s="111"/>
-      <c r="D116" s="111"/>
-      <c r="E116" s="111"/>
-      <c r="F116" s="111"/>
-      <c r="G116" s="111"/>
-      <c r="H116" s="111"/>
-      <c r="I116" s="111"/>
-      <c r="J116" s="111"/>
-      <c r="K116" s="111"/>
-      <c r="L116" s="111"/>
-      <c r="M116" s="111"/>
-      <c r="N116" s="111"/>
-      <c r="O116" s="111"/>
-      <c r="P116" s="111"/>
-      <c r="Q116" s="111"/>
-      <c r="R116" s="111"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="111"/>
-      <c r="B117" s="111"/>
-      <c r="C117" s="111"/>
-      <c r="D117" s="111"/>
-      <c r="E117" s="111"/>
-      <c r="F117" s="111"/>
-      <c r="G117" s="111"/>
-      <c r="H117" s="111"/>
-      <c r="I117" s="111"/>
-      <c r="J117" s="111"/>
-      <c r="K117" s="111"/>
-      <c r="L117" s="111"/>
-      <c r="M117" s="111"/>
-      <c r="N117" s="111"/>
-      <c r="O117" s="111"/>
-      <c r="P117" s="111"/>
-      <c r="Q117" s="111"/>
-      <c r="R117" s="111"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="111"/>
-      <c r="B118" s="111"/>
-      <c r="C118" s="111"/>
-      <c r="D118" s="111"/>
-      <c r="E118" s="111"/>
-      <c r="F118" s="111"/>
-      <c r="G118" s="111"/>
-      <c r="H118" s="111"/>
-      <c r="I118" s="111"/>
-      <c r="J118" s="111"/>
-      <c r="K118" s="111"/>
-      <c r="L118" s="111"/>
-      <c r="M118" s="111"/>
-      <c r="N118" s="111"/>
-      <c r="O118" s="111"/>
-      <c r="P118" s="111"/>
-      <c r="Q118" s="111"/>
-      <c r="R118" s="111"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="111"/>
-      <c r="B119" s="111"/>
-      <c r="C119" s="111"/>
-      <c r="D119" s="111"/>
-      <c r="E119" s="111"/>
-      <c r="F119" s="111"/>
-      <c r="G119" s="111"/>
-      <c r="H119" s="111"/>
-      <c r="I119" s="111"/>
-      <c r="J119" s="111"/>
-      <c r="K119" s="111"/>
-      <c r="L119" s="111"/>
-      <c r="M119" s="111"/>
-      <c r="N119" s="111"/>
-      <c r="O119" s="111"/>
-      <c r="P119" s="111"/>
-      <c r="Q119" s="111"/>
-      <c r="R119" s="111"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="111"/>
-      <c r="B120" s="111"/>
-      <c r="C120" s="111"/>
-      <c r="D120" s="111"/>
-      <c r="E120" s="111"/>
-      <c r="F120" s="111"/>
-      <c r="G120" s="111"/>
-      <c r="H120" s="111"/>
-      <c r="I120" s="111"/>
-      <c r="J120" s="111"/>
-      <c r="K120" s="111"/>
-      <c r="L120" s="111"/>
-      <c r="M120" s="111"/>
-      <c r="N120" s="111"/>
-      <c r="O120" s="111"/>
-      <c r="P120" s="111"/>
-      <c r="Q120" s="111"/>
-      <c r="R120" s="111"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="111"/>
-      <c r="B121" s="111"/>
-      <c r="C121" s="111"/>
-      <c r="D121" s="111"/>
-      <c r="E121" s="111"/>
-      <c r="F121" s="111"/>
-      <c r="G121" s="111"/>
-      <c r="H121" s="111"/>
-      <c r="I121" s="111"/>
-      <c r="J121" s="111"/>
-      <c r="K121" s="111"/>
-      <c r="L121" s="111"/>
-      <c r="M121" s="111"/>
-      <c r="N121" s="111"/>
-      <c r="O121" s="111"/>
-      <c r="P121" s="111"/>
-      <c r="Q121" s="111"/>
-      <c r="R121" s="111"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="111"/>
-      <c r="B122" s="111"/>
-      <c r="C122" s="111"/>
-      <c r="D122" s="111"/>
-      <c r="E122" s="111"/>
-      <c r="F122" s="111"/>
-      <c r="G122" s="111"/>
-      <c r="H122" s="111"/>
-      <c r="I122" s="111"/>
-      <c r="J122" s="111"/>
-      <c r="K122" s="111"/>
-      <c r="L122" s="111"/>
-      <c r="M122" s="111"/>
-      <c r="N122" s="111"/>
-      <c r="O122" s="111"/>
-      <c r="P122" s="111"/>
-      <c r="Q122" s="111"/>
-      <c r="R122" s="111"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="111"/>
-      <c r="B123" s="111"/>
-      <c r="C123" s="111"/>
-      <c r="D123" s="111"/>
-      <c r="E123" s="111"/>
-      <c r="F123" s="111"/>
-      <c r="G123" s="111"/>
-      <c r="H123" s="111"/>
-      <c r="I123" s="111"/>
-      <c r="J123" s="111"/>
-      <c r="K123" s="111"/>
-      <c r="L123" s="111"/>
-      <c r="M123" s="111"/>
-      <c r="N123" s="111"/>
-      <c r="O123" s="111"/>
-      <c r="P123" s="111"/>
-      <c r="Q123" s="111"/>
-      <c r="R123" s="111"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="111"/>
-      <c r="B124" s="111"/>
-      <c r="C124" s="111"/>
-      <c r="D124" s="111"/>
-      <c r="E124" s="111"/>
-      <c r="F124" s="111"/>
-      <c r="G124" s="111"/>
-      <c r="H124" s="111"/>
-      <c r="I124" s="111"/>
-      <c r="J124" s="111"/>
-      <c r="K124" s="111"/>
-      <c r="L124" s="111"/>
-      <c r="M124" s="111"/>
-      <c r="N124" s="111"/>
-      <c r="O124" s="111"/>
-      <c r="P124" s="111"/>
-      <c r="Q124" s="111"/>
-      <c r="R124" s="111"/>
+      <c r="A72" s="108"/>
+      <c r="B72" s="108"/>
+      <c r="C72" s="108"/>
+      <c r="D72" s="108"/>
+      <c r="E72" s="108"/>
+      <c r="F72" s="108"/>
+      <c r="G72" s="108"/>
+      <c r="H72" s="108"/>
+      <c r="I72" s="108"/>
+      <c r="J72" s="108"/>
+      <c r="K72" s="108"/>
+      <c r="L72" s="108"/>
+      <c r="M72" s="108"/>
+      <c r="N72" s="108"/>
+      <c r="O72" s="108"/>
+      <c r="P72" s="108"/>
+      <c r="Q72" s="108"/>
+      <c r="R72" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="26">

--- a/Project Outputs for Frost5000Beta/BOM Archive/BOM_Frost5000Beta.xlsx
+++ b/Project Outputs for Frost5000Beta/BOM Archive/BOM_Frost5000Beta.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="227">
   <si>
     <t>Component List / BOM Archive</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version:</t>
   </si>
   <si>
-    <t>Beta 1.0</t>
+    <t>Beta 1.3</t>
   </si>
   <si>
     <t>Website:</t>
@@ -425,10 +425,7 @@
     <t>Resistor SMD</t>
   </si>
   <si>
-    <t>40, 47</t>
-  </si>
-  <si>
-    <t>Ra2, Re2</t>
+    <t>Ra2</t>
   </si>
   <si>
     <t>Ra3</t>
@@ -446,12 +443,15 @@
     <t>Ra5</t>
   </si>
   <si>
-    <t>5K</t>
+    <t>5.6K</t>
   </si>
   <si>
     <t>Re1</t>
   </si>
   <si>
+    <t>Re2</t>
+  </si>
+  <si>
     <t>Re3</t>
   </si>
   <si>
@@ -476,19 +476,19 @@
     <t>Rf2</t>
   </si>
   <si>
-    <t>100K</t>
+    <t>93.1K</t>
   </si>
   <si>
     <t>Ro1</t>
   </si>
   <si>
-    <t>330K</t>
+    <t>332K +- 1%</t>
   </si>
   <si>
     <t>Ro2</t>
   </si>
   <si>
-    <t>90K</t>
+    <t>90.9K +- 1%</t>
   </si>
   <si>
     <t>58, 60, 62, 64, 66</t>
@@ -497,6 +497,9 @@
     <t>Rq1c, Rq2c, Rq3c, Rq4c, Rq5c</t>
   </si>
   <si>
+    <t>Ru</t>
+  </si>
+  <si>
     <t>RcS</t>
   </si>
   <si>
@@ -654,6 +657,27 @@
   </si>
   <si>
     <t>LM1117LD-3.3/NOPBCT-ND</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>24CW1280T-I/OT</t>
+  </si>
+  <si>
+    <t>EEPROM 128 Kbit I2C</t>
+  </si>
+  <si>
+    <t>SOT-23-5</t>
+  </si>
+  <si>
+    <t>Microchip</t>
+  </si>
+  <si>
+    <t>579-24CW1280T-I/OT</t>
+  </si>
+  <si>
+    <t>24CW1280T-I/OTCT-ND</t>
   </si>
   <si>
     <t>Y</t>
@@ -707,13 +731,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="mm-dd-yyyy"/>
     <numFmt numFmtId="165" formatCode="d-mmm-yy"/>
     <numFmt numFmtId="166" formatCode="h:mm:ss am/pm"/>
-    <numFmt numFmtId="167" formatCode="m, d"/>
+    <numFmt numFmtId="167" formatCode="m, d, yy"/>
+    <numFmt numFmtId="168" formatCode="m, d"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="35">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -868,6 +893,24 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.0"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1416,7 +1459,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="127">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1605,43 +1648,46 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="36" fillId="0" fontId="25" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="11" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="40" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="41" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="40" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="42" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="36" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="11" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="40" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="41" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="40" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="42" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="36" fillId="0" fontId="25" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="36" fillId="0" fontId="25" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="22" fillId="12" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -1665,6 +1711,55 @@
     <xf borderId="22" fillId="0" fontId="28" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="22" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="40" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="41" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="40" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="42" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="28" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="10" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="41" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="24" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="41" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="43" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -1679,7 +1774,7 @@
     </xf>
     <xf borderId="46" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="47" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="9" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="9" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="14" fillId="10" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1694,7 +1789,7 @@
     <xf borderId="14" fillId="11" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2050,7 +2145,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="33">
-        <v>44028.0</v>
+        <v>44069.0</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="4"/>
@@ -2248,7 +2343,7 @@
     </row>
     <row r="11">
       <c r="A11" s="76">
-        <v>2.0</v>
+        <v>40949.0</v>
       </c>
       <c r="B11" s="77" t="s">
         <v>40</v>
@@ -2302,7 +2397,7 @@
       <c r="AA11" s="75"/>
     </row>
     <row r="12">
-      <c r="A12" s="76">
+      <c r="A12" s="88">
         <v>3.0</v>
       </c>
       <c r="B12" s="77" t="s">
@@ -2357,7 +2452,7 @@
       <c r="AA12" s="75"/>
     </row>
     <row r="13">
-      <c r="A13" s="76">
+      <c r="A13" s="88">
         <v>4.0</v>
       </c>
       <c r="B13" s="77" t="s">
@@ -2412,7 +2507,7 @@
       <c r="AA13" s="75"/>
     </row>
     <row r="14">
-      <c r="A14" s="76">
+      <c r="A14" s="88">
         <v>5.0</v>
       </c>
       <c r="B14" s="77" t="s">
@@ -2467,7 +2562,7 @@
       <c r="AA14" s="75"/>
     </row>
     <row r="15">
-      <c r="A15" s="88">
+      <c r="A15" s="89">
         <v>43995.0</v>
       </c>
       <c r="B15" s="77" t="s">
@@ -2522,7 +2617,7 @@
       <c r="AA15" s="75"/>
     </row>
     <row r="16">
-      <c r="A16" s="76">
+      <c r="A16" s="88">
         <v>7.0</v>
       </c>
       <c r="B16" s="77" t="s">
@@ -2577,7 +2672,7 @@
       <c r="AA16" s="75"/>
     </row>
     <row r="17">
-      <c r="A17" s="88">
+      <c r="A17" s="89">
         <v>44057.0</v>
       </c>
       <c r="B17" s="77" t="s">
@@ -2632,7 +2727,7 @@
       <c r="AA17" s="75"/>
     </row>
     <row r="18">
-      <c r="A18" s="76">
+      <c r="A18" s="88">
         <v>9.0</v>
       </c>
       <c r="B18" s="77" t="s">
@@ -2687,7 +2782,7 @@
       <c r="AA18" s="75"/>
     </row>
     <row r="19">
-      <c r="A19" s="76">
+      <c r="A19" s="88">
         <v>11.0</v>
       </c>
       <c r="B19" s="77" t="s">
@@ -2742,7 +2837,7 @@
       <c r="AA19" s="75"/>
     </row>
     <row r="20">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="88" t="s">
         <v>65</v>
       </c>
       <c r="B20" s="77" t="s">
@@ -2797,7 +2892,7 @@
       <c r="AA20" s="75"/>
     </row>
     <row r="21">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="88" t="s">
         <v>67</v>
       </c>
       <c r="B21" s="77" t="s">
@@ -2852,7 +2947,7 @@
       <c r="AA21" s="75"/>
     </row>
     <row r="22">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="88" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="77" t="s">
@@ -2867,7 +2962,7 @@
       <c r="E22" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="89"/>
+      <c r="F22" s="90"/>
       <c r="G22" s="81">
         <v>5.0</v>
       </c>
@@ -2880,7 +2975,7 @@
       <c r="J22" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="K22" s="90" t="s">
+      <c r="K22" s="91" t="s">
         <v>36</v>
       </c>
       <c r="L22" s="85" t="s">
@@ -2907,7 +3002,7 @@
       <c r="AA22" s="75"/>
     </row>
     <row r="23">
-      <c r="A23" s="76">
+      <c r="A23" s="88">
         <v>24.0</v>
       </c>
       <c r="B23" s="77" t="s">
@@ -2919,10 +3014,10 @@
       <c r="D23" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="91" t="s">
+      <c r="E23" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="89"/>
+      <c r="F23" s="90"/>
       <c r="G23" s="81">
         <v>1.0</v>
       </c>
@@ -2935,7 +3030,7 @@
       <c r="J23" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="K23" s="90" t="s">
+      <c r="K23" s="91" t="s">
         <v>36</v>
       </c>
       <c r="L23" s="83" t="s">
@@ -2944,7 +3039,7 @@
       <c r="M23" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="92" t="s">
+      <c r="N23" s="93" t="s">
         <v>39</v>
       </c>
       <c r="O23" s="87"/>
@@ -2962,7 +3057,7 @@
       <c r="AA23" s="75"/>
     </row>
     <row r="24">
-      <c r="A24" s="76">
+      <c r="A24" s="88">
         <v>26.0</v>
       </c>
       <c r="B24" s="77" t="s">
@@ -2974,7 +3069,7 @@
       <c r="D24" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="91" t="s">
+      <c r="E24" s="92" t="s">
         <v>87</v>
       </c>
       <c r="F24" s="80"/>
@@ -2990,7 +3085,7 @@
       <c r="J24" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="K24" s="90" t="s">
+      <c r="K24" s="91" t="s">
         <v>36</v>
       </c>
       <c r="L24" s="85" t="s">
@@ -3017,7 +3112,7 @@
       <c r="AA24" s="75"/>
     </row>
     <row r="25">
-      <c r="A25" s="76">
+      <c r="A25" s="88">
         <v>28.0</v>
       </c>
       <c r="B25" s="77" t="s">
@@ -3029,7 +3124,7 @@
       <c r="D25" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="91" t="s">
+      <c r="E25" s="92" t="s">
         <v>87</v>
       </c>
       <c r="F25" s="80"/>
@@ -3045,7 +3140,7 @@
       <c r="J25" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="K25" s="90" t="s">
+      <c r="K25" s="91" t="s">
         <v>36</v>
       </c>
       <c r="L25" s="85" t="s">
@@ -3072,7 +3167,7 @@
       <c r="AA25" s="75"/>
     </row>
     <row r="26">
-      <c r="A26" s="76">
+      <c r="A26" s="88">
         <v>27.0</v>
       </c>
       <c r="B26" s="77" t="s">
@@ -3084,10 +3179,10 @@
       <c r="D26" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="93" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="94"/>
+      <c r="E26" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="95"/>
       <c r="G26" s="81">
         <v>1.0</v>
       </c>
@@ -3100,7 +3195,7 @@
       <c r="J26" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="K26" s="90" t="s">
+      <c r="K26" s="91" t="s">
         <v>99</v>
       </c>
       <c r="L26" s="85" t="s">
@@ -3127,7 +3222,7 @@
       <c r="AA26" s="75"/>
     </row>
     <row r="27">
-      <c r="A27" s="76">
+      <c r="A27" s="88">
         <v>29.0</v>
       </c>
       <c r="B27" s="77" t="s">
@@ -3139,10 +3234,10 @@
       <c r="D27" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="E27" s="93" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="94"/>
+      <c r="E27" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="95"/>
       <c r="G27" s="81">
         <v>1.0</v>
       </c>
@@ -3155,7 +3250,7 @@
       <c r="J27" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="K27" s="90" t="s">
+      <c r="K27" s="91" t="s">
         <v>99</v>
       </c>
       <c r="L27" s="85" t="s">
@@ -3182,7 +3277,7 @@
       <c r="AA27" s="75"/>
     </row>
     <row r="28">
-      <c r="A28" s="76">
+      <c r="A28" s="88">
         <v>30.0</v>
       </c>
       <c r="B28" s="77" t="s">
@@ -3237,7 +3332,7 @@
       <c r="AA28" s="75"/>
     </row>
     <row r="29">
-      <c r="A29" s="76">
+      <c r="A29" s="88">
         <v>31.0</v>
       </c>
       <c r="B29" s="77" t="s">
@@ -3249,7 +3344,7 @@
       <c r="D29" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="E29" s="95" t="s">
+      <c r="E29" s="96" t="s">
         <v>50</v>
       </c>
       <c r="F29" s="80"/>
@@ -3292,7 +3387,7 @@
       <c r="AA29" s="75"/>
     </row>
     <row r="30">
-      <c r="A30" s="76" t="s">
+      <c r="A30" s="88" t="s">
         <v>109</v>
       </c>
       <c r="B30" s="77" t="s">
@@ -3304,10 +3399,10 @@
       <c r="D30" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="91" t="s">
+      <c r="E30" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="F30" s="94"/>
+      <c r="F30" s="95"/>
       <c r="G30" s="81">
         <v>2.0</v>
       </c>
@@ -3320,7 +3415,7 @@
       <c r="J30" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="K30" s="90" t="s">
+      <c r="K30" s="91" t="s">
         <v>36</v>
       </c>
       <c r="L30" s="83" t="s">
@@ -3329,7 +3424,7 @@
       <c r="M30" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="N30" s="92" t="s">
+      <c r="N30" s="93" t="s">
         <v>39</v>
       </c>
       <c r="O30" s="87"/>
@@ -3347,7 +3442,7 @@
       <c r="AA30" s="75"/>
     </row>
     <row r="31">
-      <c r="A31" s="76" t="s">
+      <c r="A31" s="88" t="s">
         <v>117</v>
       </c>
       <c r="B31" s="77" t="s">
@@ -3362,7 +3457,7 @@
       <c r="E31" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="F31" s="89" t="s">
+      <c r="F31" s="90" t="s">
         <v>122</v>
       </c>
       <c r="G31" s="81">
@@ -3377,7 +3472,7 @@
       <c r="J31" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="K31" s="90" t="s">
+      <c r="K31" s="91" t="s">
         <v>36</v>
       </c>
       <c r="L31" s="83" t="s">
@@ -3386,7 +3481,7 @@
       <c r="M31" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="N31" s="92" t="s">
+      <c r="N31" s="93" t="s">
         <v>39</v>
       </c>
       <c r="O31" s="87"/>
@@ -3404,7 +3499,7 @@
       <c r="AA31" s="75"/>
     </row>
     <row r="32">
-      <c r="A32" s="76">
+      <c r="A32" s="88">
         <v>39.0</v>
       </c>
       <c r="B32" s="77" t="s">
@@ -3459,11 +3554,11 @@
       <c r="AA32" s="75"/>
     </row>
     <row r="33">
-      <c r="A33" s="76" t="s">
+      <c r="A33" s="88">
+        <v>40.0</v>
+      </c>
+      <c r="B33" s="77" t="s">
         <v>129</v>
-      </c>
-      <c r="B33" s="77" t="s">
-        <v>130</v>
       </c>
       <c r="C33" s="63">
         <v>200.0</v>
@@ -3475,8 +3570,8 @@
         <v>43</v>
       </c>
       <c r="F33" s="80"/>
-      <c r="G33" s="81">
-        <v>2.0</v>
+      <c r="G33" s="97">
+        <v>1.0</v>
       </c>
       <c r="H33" s="82" t="s">
         <v>44</v>
@@ -3514,11 +3609,11 @@
       <c r="AA33" s="75"/>
     </row>
     <row r="34">
-      <c r="A34" s="76">
+      <c r="A34" s="88">
         <v>41.0</v>
       </c>
       <c r="B34" s="77" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C34" s="63">
         <v>499.0</v>
@@ -3569,14 +3664,14 @@
       <c r="AA34" s="75"/>
     </row>
     <row r="35">
-      <c r="A35" s="76" t="s">
+      <c r="A35" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="77" t="s">
+      <c r="C35" s="63" t="s">
         <v>133</v>
-      </c>
-      <c r="C35" s="63" t="s">
-        <v>134</v>
       </c>
       <c r="D35" s="78" t="s">
         <v>128</v>
@@ -3624,14 +3719,14 @@
       <c r="AA35" s="75"/>
     </row>
     <row r="36">
-      <c r="A36" s="76">
+      <c r="A36" s="88">
         <v>43.0</v>
       </c>
       <c r="B36" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="98" t="s">
         <v>135</v>
-      </c>
-      <c r="C36" s="63" t="s">
-        <v>136</v>
       </c>
       <c r="D36" s="78" t="s">
         <v>128</v>
@@ -3679,14 +3774,14 @@
       <c r="AA36" s="75"/>
     </row>
     <row r="37">
-      <c r="A37" s="76">
+      <c r="A37" s="88">
         <v>46.0</v>
       </c>
       <c r="B37" s="77" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" s="63">
-        <v>260.0</v>
+        <v>136</v>
+      </c>
+      <c r="C37" s="98">
+        <v>261.0</v>
       </c>
       <c r="D37" s="78" t="s">
         <v>128</v>
@@ -3734,44 +3829,44 @@
       <c r="AA37" s="75"/>
     </row>
     <row r="38">
-      <c r="A38" s="76">
-        <v>48.0</v>
+      <c r="A38" s="88">
+        <v>47.0</v>
       </c>
       <c r="B38" s="77" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="D38" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="98">
+        <v>205.0</v>
+      </c>
+      <c r="D38" s="99" t="s">
         <v>128</v>
       </c>
-      <c r="E38" s="79" t="s">
+      <c r="E38" s="96" t="s">
         <v>43</v>
       </c>
       <c r="F38" s="80"/>
-      <c r="G38" s="81">
+      <c r="G38" s="97">
         <v>1.0</v>
       </c>
-      <c r="H38" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="I38" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="J38" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="K38" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="L38" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="M38" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="N38" s="86" t="s">
+      <c r="H38" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="J38" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="K38" s="102" t="s">
+        <v>44</v>
+      </c>
+      <c r="L38" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="M38" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="N38" s="104" t="s">
         <v>44</v>
       </c>
       <c r="O38" s="87"/>
@@ -3789,14 +3884,14 @@
       <c r="AA38" s="75"/>
     </row>
     <row r="39">
-      <c r="A39" s="76" t="s">
-        <v>140</v>
+      <c r="A39" s="88">
+        <v>48.0</v>
       </c>
       <c r="B39" s="77" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C39" s="63" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D39" s="78" t="s">
         <v>128</v>
@@ -3806,7 +3901,7 @@
       </c>
       <c r="F39" s="80"/>
       <c r="G39" s="81">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="H39" s="82" t="s">
         <v>44</v>
@@ -3844,14 +3939,14 @@
       <c r="AA39" s="75"/>
     </row>
     <row r="40">
-      <c r="A40" s="76">
-        <v>51.0</v>
+      <c r="A40" s="88" t="s">
+        <v>140</v>
       </c>
       <c r="B40" s="77" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C40" s="63" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D40" s="78" t="s">
         <v>128</v>
@@ -3861,7 +3956,7 @@
       </c>
       <c r="F40" s="80"/>
       <c r="G40" s="81">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H40" s="82" t="s">
         <v>44</v>
@@ -3899,14 +3994,14 @@
       <c r="AA40" s="75"/>
     </row>
     <row r="41">
-      <c r="A41" s="76">
-        <v>52.0</v>
+      <c r="A41" s="88">
+        <v>51.0</v>
       </c>
       <c r="B41" s="77" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C41" s="63" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D41" s="78" t="s">
         <v>128</v>
@@ -3954,14 +4049,14 @@
       <c r="AA41" s="75"/>
     </row>
     <row r="42">
-      <c r="A42" s="76">
-        <v>53.0</v>
+      <c r="A42" s="88">
+        <v>52.0</v>
       </c>
       <c r="B42" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="C42" s="63" t="s">
-        <v>148</v>
+        <v>145</v>
+      </c>
+      <c r="C42" s="98" t="s">
+        <v>146</v>
       </c>
       <c r="D42" s="78" t="s">
         <v>128</v>
@@ -4009,14 +4104,14 @@
       <c r="AA42" s="75"/>
     </row>
     <row r="43">
-      <c r="A43" s="76">
-        <v>54.0</v>
+      <c r="A43" s="88">
+        <v>53.0</v>
       </c>
       <c r="B43" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="C43" s="63" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="C43" s="98" t="s">
+        <v>148</v>
       </c>
       <c r="D43" s="78" t="s">
         <v>128</v>
@@ -4064,14 +4159,14 @@
       <c r="AA43" s="75"/>
     </row>
     <row r="44">
-      <c r="A44" s="76" t="s">
-        <v>151</v>
+      <c r="A44" s="88">
+        <v>54.0</v>
       </c>
       <c r="B44" s="77" t="s">
-        <v>152</v>
-      </c>
-      <c r="C44" s="63">
-        <v>130.0</v>
+        <v>149</v>
+      </c>
+      <c r="C44" s="98" t="s">
+        <v>150</v>
       </c>
       <c r="D44" s="78" t="s">
         <v>128</v>
@@ -4081,7 +4176,7 @@
       </c>
       <c r="F44" s="80"/>
       <c r="G44" s="81">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H44" s="82" t="s">
         <v>44</v>
@@ -4119,45 +4214,45 @@
       <c r="AA44" s="75"/>
     </row>
     <row r="45">
-      <c r="A45" s="76">
-        <v>44.0</v>
+      <c r="A45" s="88" t="s">
+        <v>151</v>
       </c>
       <c r="B45" s="77" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45" s="63" t="s">
-        <v>154</v>
+        <v>152</v>
+      </c>
+      <c r="C45" s="63">
+        <v>130.0</v>
       </c>
       <c r="D45" s="78" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="E45" s="79" t="s">
-        <v>156</v>
-      </c>
-      <c r="F45" s="94"/>
+        <v>43</v>
+      </c>
+      <c r="F45" s="80"/>
       <c r="G45" s="81">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H45" s="82" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="I45" s="83" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J45" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="K45" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="L45" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="M45" s="78" t="s">
-        <v>159</v>
-      </c>
-      <c r="N45" s="92" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="K45" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L45" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M45" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N45" s="86" t="s">
+        <v>44</v>
       </c>
       <c r="O45" s="87"/>
       <c r="P45" s="87"/>
@@ -4174,45 +4269,45 @@
       <c r="AA45" s="75"/>
     </row>
     <row r="46">
-      <c r="A46" s="76">
+      <c r="A46" s="88">
         <v>67.0</v>
       </c>
       <c r="B46" s="77" t="s">
-        <v>160</v>
-      </c>
-      <c r="C46" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="D46" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="E46" s="79" t="s">
-        <v>163</v>
-      </c>
-      <c r="F46" s="94"/>
-      <c r="G46" s="81">
+        <v>153</v>
+      </c>
+      <c r="C46" s="98">
+        <v>10.0</v>
+      </c>
+      <c r="D46" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="80"/>
+      <c r="G46" s="97">
         <v>1.0</v>
       </c>
-      <c r="H46" s="82" t="s">
-        <v>164</v>
-      </c>
-      <c r="I46" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="J46" s="78" t="s">
-        <v>165</v>
-      </c>
-      <c r="K46" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="L46" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="M46" s="78" t="s">
-        <v>166</v>
-      </c>
-      <c r="N46" s="92" t="s">
-        <v>39</v>
+      <c r="H46" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="I46" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="J46" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="K46" s="102" t="s">
+        <v>44</v>
+      </c>
+      <c r="L46" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="M46" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="N46" s="104" t="s">
+        <v>44</v>
       </c>
       <c r="O46" s="87"/>
       <c r="P46" s="87"/>
@@ -4229,44 +4324,44 @@
       <c r="AA46" s="75"/>
     </row>
     <row r="47">
-      <c r="A47" s="76">
-        <v>68.0</v>
+      <c r="A47" s="88">
+        <v>44.0</v>
       </c>
       <c r="B47" s="77" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C47" s="63" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D47" s="78" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="E47" s="79" t="s">
-        <v>170</v>
-      </c>
-      <c r="F47" s="94"/>
+        <v>157</v>
+      </c>
+      <c r="F47" s="95"/>
       <c r="G47" s="81">
         <v>1.0</v>
       </c>
       <c r="H47" s="82" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="I47" s="83" t="s">
         <v>34</v>
       </c>
       <c r="J47" s="78" t="s">
-        <v>172</v>
-      </c>
-      <c r="K47" s="90" t="s">
+        <v>159</v>
+      </c>
+      <c r="K47" s="91" t="s">
         <v>36</v>
       </c>
       <c r="L47" s="83" t="s">
         <v>37</v>
       </c>
       <c r="M47" s="78" t="s">
-        <v>173</v>
-      </c>
-      <c r="N47" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="N47" s="93" t="s">
         <v>39</v>
       </c>
       <c r="O47" s="87"/>
@@ -4284,44 +4379,44 @@
       <c r="AA47" s="75"/>
     </row>
     <row r="48">
-      <c r="A48" s="76">
-        <v>69.0</v>
+      <c r="A48" s="88">
+        <v>68.0</v>
       </c>
       <c r="B48" s="77" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C48" s="63" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D48" s="78" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E48" s="79" t="s">
-        <v>177</v>
-      </c>
-      <c r="F48" s="94"/>
+        <v>164</v>
+      </c>
+      <c r="F48" s="95"/>
       <c r="G48" s="81">
         <v>1.0</v>
       </c>
       <c r="H48" s="82" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="I48" s="83" t="s">
         <v>34</v>
       </c>
       <c r="J48" s="78" t="s">
-        <v>179</v>
-      </c>
-      <c r="K48" s="90" t="s">
+        <v>166</v>
+      </c>
+      <c r="K48" s="91" t="s">
         <v>36</v>
       </c>
       <c r="L48" s="83" t="s">
         <v>37</v>
       </c>
       <c r="M48" s="78" t="s">
-        <v>180</v>
-      </c>
-      <c r="N48" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="N48" s="93" t="s">
         <v>39</v>
       </c>
       <c r="O48" s="87"/>
@@ -4339,45 +4434,45 @@
       <c r="AA48" s="75"/>
     </row>
     <row r="49">
-      <c r="A49" s="76">
-        <v>70.0</v>
+      <c r="A49" s="88">
+        <v>69.0</v>
       </c>
       <c r="B49" s="77" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C49" s="63" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D49" s="78" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E49" s="79" t="s">
-        <v>184</v>
-      </c>
-      <c r="F49" s="94"/>
+        <v>171</v>
+      </c>
+      <c r="F49" s="95"/>
       <c r="G49" s="81">
         <v>1.0</v>
       </c>
       <c r="H49" s="82" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="I49" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="J49" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="K49" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="L49" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="J49" s="78" t="s">
-        <v>186</v>
-      </c>
-      <c r="K49" s="90" t="s">
+      <c r="M49" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="N49" s="93" t="s">
         <v>39</v>
-      </c>
-      <c r="L49" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="M49" s="78" t="s">
-        <v>187</v>
-      </c>
-      <c r="N49" s="92" t="s">
-        <v>36</v>
       </c>
       <c r="O49" s="87"/>
       <c r="P49" s="87"/>
@@ -4394,44 +4489,44 @@
       <c r="AA49" s="75"/>
     </row>
     <row r="50">
-      <c r="A50" s="76">
-        <v>71.0</v>
+      <c r="A50" s="88">
+        <v>70.0</v>
       </c>
       <c r="B50" s="77" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C50" s="63" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D50" s="78" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="E50" s="79" t="s">
-        <v>191</v>
-      </c>
-      <c r="F50" s="94"/>
+        <v>178</v>
+      </c>
+      <c r="F50" s="95"/>
       <c r="G50" s="81">
         <v>1.0</v>
       </c>
       <c r="H50" s="82" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I50" s="83" t="s">
         <v>34</v>
       </c>
       <c r="J50" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="K50" s="90" t="s">
+        <v>180</v>
+      </c>
+      <c r="K50" s="91" t="s">
         <v>36</v>
       </c>
       <c r="L50" s="83" t="s">
         <v>37</v>
       </c>
       <c r="M50" s="78" t="s">
-        <v>193</v>
-      </c>
-      <c r="N50" s="92" t="s">
+        <v>181</v>
+      </c>
+      <c r="N50" s="93" t="s">
         <v>39</v>
       </c>
       <c r="O50" s="87"/>
@@ -4449,45 +4544,45 @@
       <c r="AA50" s="75"/>
     </row>
     <row r="51">
-      <c r="A51" s="76">
-        <v>72.0</v>
+      <c r="A51" s="88">
+        <v>71.0</v>
       </c>
       <c r="B51" s="77" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C51" s="63" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D51" s="78" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E51" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="F51" s="94"/>
+        <v>185</v>
+      </c>
+      <c r="F51" s="95"/>
       <c r="G51" s="81">
         <v>1.0</v>
       </c>
       <c r="H51" s="82" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="I51" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="J51" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="K51" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="L51" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="J51" s="78" t="s">
-        <v>198</v>
-      </c>
-      <c r="K51" s="90" t="s">
+      <c r="M51" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="N51" s="93" t="s">
         <v>36</v>
-      </c>
-      <c r="L51" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="M51" s="78" t="s">
-        <v>199</v>
-      </c>
-      <c r="N51" s="92" t="s">
-        <v>39</v>
       </c>
       <c r="O51" s="87"/>
       <c r="P51" s="87"/>
@@ -4504,44 +4599,44 @@
       <c r="AA51" s="75"/>
     </row>
     <row r="52">
-      <c r="A52" s="76">
-        <v>73.0</v>
+      <c r="A52" s="88">
+        <v>72.0</v>
       </c>
       <c r="B52" s="77" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C52" s="63" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D52" s="78" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E52" s="79" t="s">
-        <v>203</v>
-      </c>
-      <c r="F52" s="94"/>
+        <v>192</v>
+      </c>
+      <c r="F52" s="95"/>
       <c r="G52" s="81">
         <v>1.0</v>
       </c>
       <c r="H52" s="82" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I52" s="83" t="s">
         <v>34</v>
       </c>
       <c r="J52" s="78" t="s">
-        <v>204</v>
-      </c>
-      <c r="K52" s="90" t="s">
+        <v>193</v>
+      </c>
+      <c r="K52" s="91" t="s">
         <v>36</v>
       </c>
       <c r="L52" s="83" t="s">
         <v>37</v>
       </c>
       <c r="M52" s="78" t="s">
-        <v>205</v>
-      </c>
-      <c r="N52" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="N52" s="93" t="s">
         <v>39</v>
       </c>
       <c r="O52" s="87"/>
@@ -4559,45 +4654,45 @@
       <c r="AA52" s="75"/>
     </row>
     <row r="53">
-      <c r="A53" s="76">
-        <v>74.0</v>
+      <c r="A53" s="88">
+        <v>73.0</v>
       </c>
       <c r="B53" s="77" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C53" s="63" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D53" s="78" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="E53" s="79" t="s">
-        <v>209</v>
-      </c>
-      <c r="F53" s="89"/>
+        <v>198</v>
+      </c>
+      <c r="F53" s="95"/>
       <c r="G53" s="81">
         <v>1.0</v>
       </c>
       <c r="H53" s="82" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="I53" s="83" t="s">
         <v>34</v>
       </c>
       <c r="J53" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="K53" s="90" t="s">
+        <v>199</v>
+      </c>
+      <c r="K53" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="L53" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="M53" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="N53" s="86" t="s">
-        <v>44</v>
+      <c r="L53" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="M53" s="78" t="s">
+        <v>200</v>
+      </c>
+      <c r="N53" s="93" t="s">
+        <v>39</v>
       </c>
       <c r="O53" s="87"/>
       <c r="P53" s="87"/>
@@ -4614,28 +4709,46 @@
       <c r="AA53" s="75"/>
     </row>
     <row r="54">
-      <c r="A54" s="96">
-        <v>25.0</v>
-      </c>
-      <c r="B54" s="97" t="s">
-        <v>212</v>
-      </c>
-      <c r="C54" s="98" t="s">
-        <v>213</v>
-      </c>
-      <c r="D54" s="99" t="s">
-        <v>214</v>
-      </c>
-      <c r="E54" s="100"/>
-      <c r="F54" s="100"/>
-      <c r="G54" s="100"/>
-      <c r="H54" s="100"/>
-      <c r="I54" s="100"/>
-      <c r="J54" s="100"/>
-      <c r="K54" s="100"/>
-      <c r="L54" s="100"/>
-      <c r="M54" s="100"/>
-      <c r="N54" s="101"/>
+      <c r="A54" s="88">
+        <v>74.0</v>
+      </c>
+      <c r="B54" s="77" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" s="63" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="E54" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="F54" s="95"/>
+      <c r="G54" s="81">
+        <v>1.0</v>
+      </c>
+      <c r="H54" s="82" t="s">
+        <v>179</v>
+      </c>
+      <c r="I54" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="J54" s="78" t="s">
+        <v>205</v>
+      </c>
+      <c r="K54" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="L54" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="M54" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="N54" s="93" t="s">
+        <v>39</v>
+      </c>
       <c r="O54" s="87"/>
       <c r="P54" s="87"/>
       <c r="Q54" s="87"/>
@@ -4651,59 +4764,107 @@
       <c r="AA54" s="75"/>
     </row>
     <row r="55">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="87"/>
-      <c r="P55" s="87"/>
-      <c r="Q55" s="87"/>
-      <c r="R55" s="87"/>
-      <c r="S55" s="74"/>
-      <c r="T55" s="74"/>
-      <c r="U55" s="74"/>
-      <c r="V55" s="74"/>
-      <c r="W55" s="74"/>
-      <c r="X55" s="75"/>
-      <c r="Y55" s="75"/>
-      <c r="Z55" s="75"/>
-      <c r="AA55" s="75"/>
+      <c r="A55" s="88">
+        <v>75.0</v>
+      </c>
+      <c r="B55" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" s="98" t="s">
+        <v>208</v>
+      </c>
+      <c r="D55" s="99" t="s">
+        <v>209</v>
+      </c>
+      <c r="E55" s="106" t="s">
+        <v>210</v>
+      </c>
+      <c r="F55" s="107"/>
+      <c r="G55" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="H55" s="109" t="s">
+        <v>211</v>
+      </c>
+      <c r="I55" s="110" t="s">
+        <v>34</v>
+      </c>
+      <c r="J55" s="111" t="s">
+        <v>212</v>
+      </c>
+      <c r="K55" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="L55" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="M55" s="111" t="s">
+        <v>213</v>
+      </c>
+      <c r="N55" s="112" t="s">
+        <v>39</v>
+      </c>
+      <c r="O55" s="113"/>
+      <c r="P55" s="113"/>
+      <c r="Q55" s="113"/>
+      <c r="R55" s="113"/>
+      <c r="S55" s="113"/>
+      <c r="T55" s="113"/>
+      <c r="U55" s="113"/>
+      <c r="V55" s="113"/>
+      <c r="W55" s="113"/>
+      <c r="X55" s="113"/>
+      <c r="Y55" s="113"/>
+      <c r="Z55" s="113"/>
+      <c r="AA55" s="113"/>
     </row>
     <row r="56">
-      <c r="A56" s="102" t="s">
+      <c r="A56" s="88">
+        <v>76.0</v>
+      </c>
+      <c r="B56" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="C56" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="103"/>
-      <c r="D56" s="104" t="s">
+      <c r="D56" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="E56" s="37"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
+      <c r="E56" s="79" t="s">
+        <v>217</v>
+      </c>
+      <c r="F56" s="90"/>
+      <c r="G56" s="81">
+        <v>1.0</v>
+      </c>
+      <c r="H56" s="82" t="s">
+        <v>218</v>
+      </c>
+      <c r="I56" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="J56" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="K56" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="L56" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M56" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N56" s="86" t="s">
+        <v>44</v>
+      </c>
       <c r="O56" s="87"/>
       <c r="P56" s="87"/>
       <c r="Q56" s="87"/>
       <c r="R56" s="87"/>
-      <c r="S56" s="87"/>
-      <c r="T56" s="87"/>
+      <c r="S56" s="74"/>
+      <c r="T56" s="74"/>
       <c r="U56" s="74"/>
       <c r="V56" s="74"/>
       <c r="W56" s="74"/>
@@ -4713,28 +4874,34 @@
       <c r="AA56" s="75"/>
     </row>
     <row r="57">
-      <c r="A57" s="22"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="105"/>
-      <c r="D57" s="104" t="s">
-        <v>217</v>
-      </c>
-      <c r="E57" s="37"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
+      <c r="A57" s="114">
+        <v>25.0</v>
+      </c>
+      <c r="B57" s="115" t="s">
+        <v>220</v>
+      </c>
+      <c r="C57" s="116" t="s">
+        <v>221</v>
+      </c>
+      <c r="D57" s="117" t="s">
+        <v>222</v>
+      </c>
+      <c r="E57" s="118"/>
+      <c r="F57" s="118"/>
+      <c r="G57" s="118"/>
+      <c r="H57" s="118"/>
+      <c r="I57" s="118"/>
+      <c r="J57" s="118"/>
+      <c r="K57" s="118"/>
+      <c r="L57" s="118"/>
+      <c r="M57" s="118"/>
+      <c r="N57" s="119"/>
       <c r="O57" s="87"/>
       <c r="P57" s="87"/>
       <c r="Q57" s="87"/>
       <c r="R57" s="87"/>
-      <c r="S57" s="87"/>
-      <c r="T57" s="87"/>
+      <c r="S57" s="74"/>
+      <c r="T57" s="74"/>
       <c r="U57" s="74"/>
       <c r="V57" s="74"/>
       <c r="W57" s="74"/>
@@ -4744,14 +4911,12 @@
       <c r="AA57" s="75"/>
     </row>
     <row r="58">
-      <c r="A58" s="30"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="106"/>
-      <c r="D58" s="104" t="s">
-        <v>218</v>
-      </c>
-      <c r="E58" s="37"/>
-      <c r="F58" s="13"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
@@ -4764,8 +4929,8 @@
       <c r="P58" s="87"/>
       <c r="Q58" s="87"/>
       <c r="R58" s="87"/>
-      <c r="S58" s="87"/>
-      <c r="T58" s="87"/>
+      <c r="S58" s="74"/>
+      <c r="T58" s="74"/>
       <c r="U58" s="74"/>
       <c r="V58" s="74"/>
       <c r="W58" s="74"/>
@@ -4775,12 +4940,16 @@
       <c r="AA58" s="75"/>
     </row>
     <row r="59">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
+      <c r="A59" s="120" t="s">
+        <v>223</v>
+      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="121"/>
+      <c r="D59" s="122" t="s">
+        <v>224</v>
+      </c>
+      <c r="E59" s="37"/>
+      <c r="F59" s="13"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
@@ -4793,8 +4962,8 @@
       <c r="P59" s="87"/>
       <c r="Q59" s="87"/>
       <c r="R59" s="87"/>
-      <c r="S59" s="74"/>
-      <c r="T59" s="74"/>
+      <c r="S59" s="87"/>
+      <c r="T59" s="87"/>
       <c r="U59" s="74"/>
       <c r="V59" s="74"/>
       <c r="W59" s="74"/>
@@ -4804,26 +4973,28 @@
       <c r="AA59" s="75"/>
     </row>
     <row r="60">
-      <c r="A60" s="107"/>
-      <c r="B60" s="107"/>
-      <c r="C60" s="107"/>
-      <c r="D60" s="107"/>
-      <c r="E60" s="107"/>
-      <c r="F60" s="107"/>
-      <c r="G60" s="107"/>
-      <c r="H60" s="107"/>
-      <c r="I60" s="87"/>
-      <c r="J60" s="87"/>
-      <c r="K60" s="87"/>
-      <c r="L60" s="87"/>
-      <c r="M60" s="87"/>
-      <c r="N60" s="87"/>
+      <c r="A60" s="22"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="123"/>
+      <c r="D60" s="122" t="s">
+        <v>225</v>
+      </c>
+      <c r="E60" s="37"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
       <c r="O60" s="87"/>
       <c r="P60" s="87"/>
       <c r="Q60" s="87"/>
       <c r="R60" s="87"/>
-      <c r="S60" s="74"/>
-      <c r="T60" s="74"/>
+      <c r="S60" s="87"/>
+      <c r="T60" s="87"/>
       <c r="U60" s="74"/>
       <c r="V60" s="74"/>
       <c r="W60" s="74"/>
@@ -4833,244 +5004,333 @@
       <c r="AA60" s="75"/>
     </row>
     <row r="61">
-      <c r="A61" s="108"/>
-      <c r="B61" s="108"/>
-      <c r="C61" s="108"/>
-      <c r="D61" s="108"/>
-      <c r="E61" s="108"/>
-      <c r="F61" s="108"/>
-      <c r="G61" s="108"/>
-      <c r="H61" s="108"/>
-      <c r="I61" s="108"/>
-      <c r="J61" s="108"/>
-      <c r="K61" s="108"/>
-      <c r="L61" s="108"/>
-      <c r="M61" s="108"/>
-      <c r="N61" s="108"/>
-      <c r="O61" s="108"/>
-      <c r="P61" s="108"/>
-      <c r="Q61" s="108"/>
-      <c r="R61" s="108"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="124"/>
+      <c r="D61" s="122" t="s">
+        <v>226</v>
+      </c>
+      <c r="E61" s="37"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="87"/>
+      <c r="P61" s="87"/>
+      <c r="Q61" s="87"/>
+      <c r="R61" s="87"/>
+      <c r="S61" s="87"/>
+      <c r="T61" s="87"/>
+      <c r="U61" s="74"/>
+      <c r="V61" s="74"/>
+      <c r="W61" s="74"/>
+      <c r="X61" s="75"/>
+      <c r="Y61" s="75"/>
+      <c r="Z61" s="75"/>
+      <c r="AA61" s="75"/>
     </row>
     <row r="62">
-      <c r="A62" s="108"/>
-      <c r="B62" s="108"/>
-      <c r="C62" s="108"/>
-      <c r="D62" s="108"/>
-      <c r="E62" s="108"/>
-      <c r="F62" s="108"/>
-      <c r="G62" s="108"/>
-      <c r="H62" s="108"/>
-      <c r="I62" s="108"/>
-      <c r="J62" s="108"/>
-      <c r="K62" s="108"/>
-      <c r="L62" s="108"/>
-      <c r="M62" s="108"/>
-      <c r="N62" s="108"/>
-      <c r="O62" s="108"/>
-      <c r="P62" s="108"/>
-      <c r="Q62" s="108"/>
-      <c r="R62" s="108"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="87"/>
+      <c r="P62" s="87"/>
+      <c r="Q62" s="87"/>
+      <c r="R62" s="87"/>
+      <c r="S62" s="74"/>
+      <c r="T62" s="74"/>
+      <c r="U62" s="74"/>
+      <c r="V62" s="74"/>
+      <c r="W62" s="74"/>
+      <c r="X62" s="75"/>
+      <c r="Y62" s="75"/>
+      <c r="Z62" s="75"/>
+      <c r="AA62" s="75"/>
     </row>
     <row r="63">
-      <c r="A63" s="108"/>
-      <c r="B63" s="108"/>
-      <c r="C63" s="108"/>
-      <c r="D63" s="108"/>
-      <c r="E63" s="108"/>
-      <c r="F63" s="108"/>
-      <c r="G63" s="108"/>
-      <c r="H63" s="108"/>
-      <c r="I63" s="108"/>
-      <c r="J63" s="108"/>
-      <c r="K63" s="108"/>
-      <c r="L63" s="108"/>
-      <c r="M63" s="108"/>
-      <c r="N63" s="108"/>
-      <c r="O63" s="108"/>
-      <c r="P63" s="108"/>
-      <c r="Q63" s="108"/>
-      <c r="R63" s="108"/>
+      <c r="A63" s="125"/>
+      <c r="B63" s="125"/>
+      <c r="C63" s="125"/>
+      <c r="D63" s="125"/>
+      <c r="E63" s="125"/>
+      <c r="F63" s="125"/>
+      <c r="G63" s="125"/>
+      <c r="H63" s="125"/>
+      <c r="I63" s="87"/>
+      <c r="J63" s="87"/>
+      <c r="K63" s="87"/>
+      <c r="L63" s="87"/>
+      <c r="M63" s="87"/>
+      <c r="N63" s="87"/>
+      <c r="O63" s="87"/>
+      <c r="P63" s="87"/>
+      <c r="Q63" s="87"/>
+      <c r="R63" s="87"/>
+      <c r="S63" s="74"/>
+      <c r="T63" s="74"/>
+      <c r="U63" s="74"/>
+      <c r="V63" s="74"/>
+      <c r="W63" s="74"/>
+      <c r="X63" s="75"/>
+      <c r="Y63" s="75"/>
+      <c r="Z63" s="75"/>
+      <c r="AA63" s="75"/>
     </row>
     <row r="64">
-      <c r="A64" s="108"/>
-      <c r="B64" s="108"/>
-      <c r="C64" s="108"/>
-      <c r="D64" s="108"/>
-      <c r="E64" s="108"/>
-      <c r="F64" s="108"/>
-      <c r="G64" s="108"/>
-      <c r="H64" s="108"/>
-      <c r="I64" s="108"/>
-      <c r="J64" s="108"/>
-      <c r="K64" s="108"/>
-      <c r="L64" s="108"/>
-      <c r="M64" s="108"/>
-      <c r="N64" s="108"/>
-      <c r="O64" s="108"/>
-      <c r="P64" s="108"/>
-      <c r="Q64" s="108"/>
-      <c r="R64" s="108"/>
+      <c r="A64" s="126"/>
+      <c r="B64" s="126"/>
+      <c r="C64" s="126"/>
+      <c r="D64" s="126"/>
+      <c r="E64" s="126"/>
+      <c r="F64" s="126"/>
+      <c r="G64" s="126"/>
+      <c r="H64" s="126"/>
+      <c r="I64" s="126"/>
+      <c r="J64" s="126"/>
+      <c r="K64" s="126"/>
+      <c r="L64" s="126"/>
+      <c r="M64" s="126"/>
+      <c r="N64" s="126"/>
+      <c r="O64" s="126"/>
+      <c r="P64" s="126"/>
+      <c r="Q64" s="126"/>
+      <c r="R64" s="126"/>
     </row>
     <row r="65">
-      <c r="A65" s="108"/>
-      <c r="B65" s="108"/>
-      <c r="C65" s="108"/>
-      <c r="D65" s="108"/>
-      <c r="E65" s="108"/>
-      <c r="F65" s="108"/>
-      <c r="G65" s="108"/>
-      <c r="H65" s="108"/>
-      <c r="I65" s="108"/>
-      <c r="J65" s="108"/>
-      <c r="K65" s="108"/>
-      <c r="L65" s="108"/>
-      <c r="M65" s="108"/>
-      <c r="N65" s="108"/>
-      <c r="O65" s="108"/>
-      <c r="P65" s="108"/>
-      <c r="Q65" s="108"/>
-      <c r="R65" s="108"/>
+      <c r="A65" s="126"/>
+      <c r="B65" s="126"/>
+      <c r="C65" s="126"/>
+      <c r="D65" s="126"/>
+      <c r="E65" s="126"/>
+      <c r="F65" s="126"/>
+      <c r="G65" s="126"/>
+      <c r="H65" s="126"/>
+      <c r="I65" s="126"/>
+      <c r="J65" s="126"/>
+      <c r="K65" s="126"/>
+      <c r="L65" s="126"/>
+      <c r="M65" s="126"/>
+      <c r="N65" s="126"/>
+      <c r="O65" s="126"/>
+      <c r="P65" s="126"/>
+      <c r="Q65" s="126"/>
+      <c r="R65" s="126"/>
     </row>
     <row r="66">
-      <c r="A66" s="108"/>
-      <c r="B66" s="108"/>
-      <c r="C66" s="108"/>
-      <c r="D66" s="108"/>
-      <c r="E66" s="108"/>
-      <c r="F66" s="108"/>
-      <c r="G66" s="108"/>
-      <c r="H66" s="108"/>
-      <c r="I66" s="108"/>
-      <c r="J66" s="108"/>
-      <c r="K66" s="108"/>
-      <c r="L66" s="108"/>
-      <c r="M66" s="108"/>
-      <c r="N66" s="108"/>
-      <c r="O66" s="108"/>
-      <c r="P66" s="108"/>
-      <c r="Q66" s="108"/>
-      <c r="R66" s="108"/>
+      <c r="A66" s="126"/>
+      <c r="B66" s="126"/>
+      <c r="C66" s="126"/>
+      <c r="D66" s="126"/>
+      <c r="E66" s="126"/>
+      <c r="F66" s="126"/>
+      <c r="G66" s="126"/>
+      <c r="H66" s="126"/>
+      <c r="I66" s="126"/>
+      <c r="J66" s="126"/>
+      <c r="K66" s="126"/>
+      <c r="L66" s="126"/>
+      <c r="M66" s="126"/>
+      <c r="N66" s="126"/>
+      <c r="O66" s="126"/>
+      <c r="P66" s="126"/>
+      <c r="Q66" s="126"/>
+      <c r="R66" s="126"/>
     </row>
     <row r="67">
-      <c r="A67" s="108"/>
-      <c r="B67" s="108"/>
-      <c r="C67" s="108"/>
-      <c r="D67" s="108"/>
-      <c r="E67" s="108"/>
-      <c r="F67" s="108"/>
-      <c r="G67" s="108"/>
-      <c r="H67" s="108"/>
-      <c r="I67" s="108"/>
-      <c r="J67" s="108"/>
-      <c r="K67" s="108"/>
-      <c r="L67" s="108"/>
-      <c r="M67" s="108"/>
-      <c r="N67" s="108"/>
-      <c r="O67" s="108"/>
-      <c r="P67" s="108"/>
-      <c r="Q67" s="108"/>
-      <c r="R67" s="108"/>
+      <c r="A67" s="126"/>
+      <c r="B67" s="126"/>
+      <c r="C67" s="126"/>
+      <c r="D67" s="126"/>
+      <c r="E67" s="126"/>
+      <c r="F67" s="126"/>
+      <c r="G67" s="126"/>
+      <c r="H67" s="126"/>
+      <c r="I67" s="126"/>
+      <c r="J67" s="126"/>
+      <c r="K67" s="126"/>
+      <c r="L67" s="126"/>
+      <c r="M67" s="126"/>
+      <c r="N67" s="126"/>
+      <c r="O67" s="126"/>
+      <c r="P67" s="126"/>
+      <c r="Q67" s="126"/>
+      <c r="R67" s="126"/>
     </row>
     <row r="68">
-      <c r="A68" s="108"/>
-      <c r="B68" s="108"/>
-      <c r="C68" s="108"/>
-      <c r="D68" s="108"/>
-      <c r="E68" s="108"/>
-      <c r="F68" s="108"/>
-      <c r="G68" s="108"/>
-      <c r="H68" s="108"/>
-      <c r="I68" s="108"/>
-      <c r="J68" s="108"/>
-      <c r="K68" s="108"/>
-      <c r="L68" s="108"/>
-      <c r="M68" s="108"/>
-      <c r="N68" s="108"/>
-      <c r="O68" s="108"/>
-      <c r="P68" s="108"/>
-      <c r="Q68" s="108"/>
-      <c r="R68" s="108"/>
+      <c r="A68" s="126"/>
+      <c r="B68" s="126"/>
+      <c r="C68" s="126"/>
+      <c r="D68" s="126"/>
+      <c r="E68" s="126"/>
+      <c r="F68" s="126"/>
+      <c r="G68" s="126"/>
+      <c r="H68" s="126"/>
+      <c r="I68" s="126"/>
+      <c r="J68" s="126"/>
+      <c r="K68" s="126"/>
+      <c r="L68" s="126"/>
+      <c r="M68" s="126"/>
+      <c r="N68" s="126"/>
+      <c r="O68" s="126"/>
+      <c r="P68" s="126"/>
+      <c r="Q68" s="126"/>
+      <c r="R68" s="126"/>
     </row>
     <row r="69">
-      <c r="A69" s="108"/>
-      <c r="B69" s="108"/>
-      <c r="C69" s="108"/>
-      <c r="D69" s="108"/>
-      <c r="E69" s="108"/>
-      <c r="F69" s="108"/>
-      <c r="G69" s="108"/>
-      <c r="H69" s="108"/>
-      <c r="I69" s="108"/>
-      <c r="J69" s="108"/>
-      <c r="K69" s="108"/>
-      <c r="L69" s="108"/>
-      <c r="M69" s="108"/>
-      <c r="N69" s="108"/>
-      <c r="O69" s="108"/>
-      <c r="P69" s="108"/>
-      <c r="Q69" s="108"/>
-      <c r="R69" s="108"/>
+      <c r="A69" s="126"/>
+      <c r="B69" s="126"/>
+      <c r="C69" s="126"/>
+      <c r="D69" s="126"/>
+      <c r="E69" s="126"/>
+      <c r="F69" s="126"/>
+      <c r="G69" s="126"/>
+      <c r="H69" s="126"/>
+      <c r="I69" s="126"/>
+      <c r="J69" s="126"/>
+      <c r="K69" s="126"/>
+      <c r="L69" s="126"/>
+      <c r="M69" s="126"/>
+      <c r="N69" s="126"/>
+      <c r="O69" s="126"/>
+      <c r="P69" s="126"/>
+      <c r="Q69" s="126"/>
+      <c r="R69" s="126"/>
     </row>
     <row r="70">
-      <c r="A70" s="108"/>
-      <c r="B70" s="108"/>
-      <c r="C70" s="108"/>
-      <c r="D70" s="108"/>
-      <c r="E70" s="108"/>
-      <c r="F70" s="108"/>
-      <c r="G70" s="108"/>
-      <c r="H70" s="108"/>
-      <c r="I70" s="108"/>
-      <c r="J70" s="108"/>
-      <c r="K70" s="108"/>
-      <c r="L70" s="108"/>
-      <c r="M70" s="108"/>
-      <c r="N70" s="108"/>
-      <c r="O70" s="108"/>
-      <c r="P70" s="108"/>
-      <c r="Q70" s="108"/>
-      <c r="R70" s="108"/>
+      <c r="A70" s="126"/>
+      <c r="B70" s="126"/>
+      <c r="C70" s="126"/>
+      <c r="D70" s="126"/>
+      <c r="E70" s="126"/>
+      <c r="F70" s="126"/>
+      <c r="G70" s="126"/>
+      <c r="H70" s="126"/>
+      <c r="I70" s="126"/>
+      <c r="J70" s="126"/>
+      <c r="K70" s="126"/>
+      <c r="L70" s="126"/>
+      <c r="M70" s="126"/>
+      <c r="N70" s="126"/>
+      <c r="O70" s="126"/>
+      <c r="P70" s="126"/>
+      <c r="Q70" s="126"/>
+      <c r="R70" s="126"/>
     </row>
     <row r="71">
-      <c r="A71" s="108"/>
-      <c r="B71" s="108"/>
-      <c r="C71" s="108"/>
-      <c r="D71" s="108"/>
-      <c r="E71" s="108"/>
-      <c r="F71" s="108"/>
-      <c r="G71" s="108"/>
-      <c r="H71" s="108"/>
-      <c r="I71" s="108"/>
-      <c r="J71" s="108"/>
-      <c r="K71" s="108"/>
-      <c r="L71" s="108"/>
-      <c r="M71" s="108"/>
-      <c r="N71" s="108"/>
-      <c r="O71" s="108"/>
-      <c r="P71" s="108"/>
-      <c r="Q71" s="108"/>
-      <c r="R71" s="108"/>
+      <c r="A71" s="126"/>
+      <c r="B71" s="126"/>
+      <c r="C71" s="126"/>
+      <c r="D71" s="126"/>
+      <c r="E71" s="126"/>
+      <c r="F71" s="126"/>
+      <c r="G71" s="126"/>
+      <c r="H71" s="126"/>
+      <c r="I71" s="126"/>
+      <c r="J71" s="126"/>
+      <c r="K71" s="126"/>
+      <c r="L71" s="126"/>
+      <c r="M71" s="126"/>
+      <c r="N71" s="126"/>
+      <c r="O71" s="126"/>
+      <c r="P71" s="126"/>
+      <c r="Q71" s="126"/>
+      <c r="R71" s="126"/>
     </row>
     <row r="72">
-      <c r="A72" s="108"/>
-      <c r="B72" s="108"/>
-      <c r="C72" s="108"/>
-      <c r="D72" s="108"/>
-      <c r="E72" s="108"/>
-      <c r="F72" s="108"/>
-      <c r="G72" s="108"/>
-      <c r="H72" s="108"/>
-      <c r="I72" s="108"/>
-      <c r="J72" s="108"/>
-      <c r="K72" s="108"/>
-      <c r="L72" s="108"/>
-      <c r="M72" s="108"/>
-      <c r="N72" s="108"/>
-      <c r="O72" s="108"/>
-      <c r="P72" s="108"/>
-      <c r="Q72" s="108"/>
-      <c r="R72" s="108"/>
+      <c r="A72" s="126"/>
+      <c r="B72" s="126"/>
+      <c r="C72" s="126"/>
+      <c r="D72" s="126"/>
+      <c r="E72" s="126"/>
+      <c r="F72" s="126"/>
+      <c r="G72" s="126"/>
+      <c r="H72" s="126"/>
+      <c r="I72" s="126"/>
+      <c r="J72" s="126"/>
+      <c r="K72" s="126"/>
+      <c r="L72" s="126"/>
+      <c r="M72" s="126"/>
+      <c r="N72" s="126"/>
+      <c r="O72" s="126"/>
+      <c r="P72" s="126"/>
+      <c r="Q72" s="126"/>
+      <c r="R72" s="126"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="126"/>
+      <c r="B73" s="126"/>
+      <c r="C73" s="126"/>
+      <c r="D73" s="126"/>
+      <c r="E73" s="126"/>
+      <c r="F73" s="126"/>
+      <c r="G73" s="126"/>
+      <c r="H73" s="126"/>
+      <c r="I73" s="126"/>
+      <c r="J73" s="126"/>
+      <c r="K73" s="126"/>
+      <c r="L73" s="126"/>
+      <c r="M73" s="126"/>
+      <c r="N73" s="126"/>
+      <c r="O73" s="126"/>
+      <c r="P73" s="126"/>
+      <c r="Q73" s="126"/>
+      <c r="R73" s="126"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="126"/>
+      <c r="B74" s="126"/>
+      <c r="C74" s="126"/>
+      <c r="D74" s="126"/>
+      <c r="E74" s="126"/>
+      <c r="F74" s="126"/>
+      <c r="G74" s="126"/>
+      <c r="H74" s="126"/>
+      <c r="I74" s="126"/>
+      <c r="J74" s="126"/>
+      <c r="K74" s="126"/>
+      <c r="L74" s="126"/>
+      <c r="M74" s="126"/>
+      <c r="N74" s="126"/>
+      <c r="O74" s="126"/>
+      <c r="P74" s="126"/>
+      <c r="Q74" s="126"/>
+      <c r="R74" s="126"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="126"/>
+      <c r="B75" s="126"/>
+      <c r="C75" s="126"/>
+      <c r="D75" s="126"/>
+      <c r="E75" s="126"/>
+      <c r="F75" s="126"/>
+      <c r="G75" s="126"/>
+      <c r="H75" s="126"/>
+      <c r="I75" s="126"/>
+      <c r="J75" s="126"/>
+      <c r="K75" s="126"/>
+      <c r="L75" s="126"/>
+      <c r="M75" s="126"/>
+      <c r="N75" s="126"/>
+      <c r="O75" s="126"/>
+      <c r="P75" s="126"/>
+      <c r="Q75" s="126"/>
+      <c r="R75" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -5090,16 +5350,16 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="L8:N8"/>
-    <mergeCell ref="D54:N54"/>
-    <mergeCell ref="A56:B58"/>
-    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D57:N57"/>
+    <mergeCell ref="A59:B61"/>
+    <mergeCell ref="D61:F61"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="H4"/>
@@ -5116,27 +5376,29 @@
     <hyperlink r:id="rId12" ref="N30"/>
     <hyperlink r:id="rId13" ref="K31"/>
     <hyperlink r:id="rId14" ref="N31"/>
-    <hyperlink r:id="rId15" ref="K45"/>
-    <hyperlink r:id="rId16" ref="N45"/>
-    <hyperlink r:id="rId17" ref="K46"/>
-    <hyperlink r:id="rId18" ref="N46"/>
-    <hyperlink r:id="rId19" ref="K47"/>
-    <hyperlink r:id="rId20" ref="N47"/>
-    <hyperlink r:id="rId21" ref="K48"/>
-    <hyperlink r:id="rId22" ref="N48"/>
-    <hyperlink r:id="rId23" ref="K49"/>
-    <hyperlink r:id="rId24" ref="N49"/>
-    <hyperlink r:id="rId25" ref="K50"/>
-    <hyperlink r:id="rId26" ref="N50"/>
-    <hyperlink r:id="rId27" ref="K51"/>
-    <hyperlink r:id="rId28" ref="N51"/>
-    <hyperlink r:id="rId29" ref="K52"/>
-    <hyperlink r:id="rId30" ref="N52"/>
-    <hyperlink r:id="rId31" ref="K53"/>
+    <hyperlink r:id="rId15" ref="K47"/>
+    <hyperlink r:id="rId16" ref="N47"/>
+    <hyperlink r:id="rId17" ref="K48"/>
+    <hyperlink r:id="rId18" ref="N48"/>
+    <hyperlink r:id="rId19" ref="K49"/>
+    <hyperlink r:id="rId20" ref="N49"/>
+    <hyperlink r:id="rId21" ref="K50"/>
+    <hyperlink r:id="rId22" ref="N50"/>
+    <hyperlink r:id="rId23" ref="K51"/>
+    <hyperlink r:id="rId24" ref="N51"/>
+    <hyperlink r:id="rId25" ref="K52"/>
+    <hyperlink r:id="rId26" ref="N52"/>
+    <hyperlink r:id="rId27" ref="K53"/>
+    <hyperlink r:id="rId28" ref="N53"/>
+    <hyperlink r:id="rId29" ref="K54"/>
+    <hyperlink r:id="rId30" ref="N54"/>
+    <hyperlink r:id="rId31" ref="K55"/>
+    <hyperlink r:id="rId32" ref="N55"/>
+    <hyperlink r:id="rId33" ref="K56"/>
   </hyperlinks>
   <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
   <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId32"/>
+  <drawing r:id="rId34"/>
 </worksheet>
 </file>